--- a/UAT-Testcase-LeaveForm.xlsx
+++ b/UAT-Testcase-LeaveForm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\WORK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\CubeSoftTech_WorkingSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C61EB81-C98C-4AA3-BB0C-2A33714328BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5852F907-CCD9-4BB2-A704-07DACDD6ECA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CCCF8952-E977-4E69-B266-ED8C89073CA7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="380">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -440,20 +440,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">พนักงานเพิ่มคำร้องการลาย้อนหลังไม่สำเร็จ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
     <t>เป็นส่วนหนึ่งในการยื่นคำร้องการลา
 สามารถยื่นคำร้องการลาครบตามจำนวนโควตาได้</t>
   </si>
@@ -475,36 +461,6 @@
   <si>
     <r>
       <t xml:space="preserve">พนักงานเพิ่มคำร้องการลาพักร้อนที่เหลือจากปีก่อน
-ครบจำนวนโควตาไม่สำเร็จ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงานเพิ่มคำร้องการลากิจ/ลาพักร้อนครบจำนวนโควตาไม่สำเร็จ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงานเพิ่มคำร้องการลาพักร้อนที่เหลือจากปีก่อน
 ครบจำนวนโควตาสำเร็จ </t>
     </r>
     <r>
@@ -534,21 +490,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">พนักงานเพิ่มคำร้องการลากิจ/ลาพักร้อนเกินจำนวนโควตาไม่สำเร็จ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">พนักงานเพิ่มคำร้องการลาพักร้อนที่เหลือจากปีก่อน
 เกินจำนวนโควตาสำเร็จ </t>
     </r>
@@ -563,21 +504,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">พนักงานเพิ่มคำร้องการลาพักร้อนที่เหลือจากปีก่อน
-เกินจำนวนโควตาไม่สำเร็จ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
     <t>เป็นส่วนหนึ่งในการยื่นคำร้องการลา
 สามารถยื่นคำร้องการลาเกินตามจำนวนโควตาได้</t>
   </si>
@@ -659,20 +585,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">พนักงานยื่นคำร้องการลาในปีถัดไปไม่สำเร็จ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
     <t>เป็นส่วนหนึ่งในการยื่นคำร้องการลา
 สามารถยื่นคำร้องการลาในปีถัดไปได้</t>
   </si>
@@ -738,66 +650,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">พนักงานแก้ไขประเภทคำร้องการลาไม่สำเร็จ สถานะรออนุมัติ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงานแก้ไขวันที่คำร้องการลาไม่สำเร็จ สถานะรออนุมัติ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงานแก้ไขคำอธิบายคำร้องการลาไม่สำเร็จสถานะรออนุมัติ
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงานแก้ไขเหตุผลคำร้องการลาไม่สำเร็จ สถานะรออนุมัติ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">พนักงานแก้ไขคำร้องการลาสำเร็จ สถานะอนุมัติ </t>
     </r>
     <r>
@@ -940,48 +792,6 @@
         <family val="2"/>
       </rPr>
       <t>(Positive Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงานค้นหาคำร้องการลาโดยการระบุวันที่ไม่สำเร็จ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงานค้นหาคำร้องการลาโดยการระบุเดือนไม่สำเร็จ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงานค้นหาคำร้องการลาโดยการระบุปีไม่สำเร็จ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
     </r>
   </si>
   <si>
@@ -1157,9 +967,6 @@
     <t>TC-LEAVE-EMP-052</t>
   </si>
   <si>
-    <t>TC-LEAVE-EMP-053</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">พนักงานติดตามสถานะคำร้องการลาสำเร็จ สถานะรออนุมัติ
 </t>
@@ -1221,66 +1028,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">พนักงานติดตามสถานะคำร้องการลาไม่สำเร็จ สถานะรออนุมัติ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงานติดตามสถานะคำร้องการลาไม่สำเร็จ สถานะอนุมัติ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงานติดตามสถานะคำร้องการลาไม่สำเร็จ สถานะไม่อนุมัติ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงานติดตามสถานะคำร้องการลาไม่สำเร็จ สถานะคำร้องถูกลบ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">พนักงานแก้ไขคำร้องการลาโดยการย้ายปุ่มสำเร็จ </t>
     </r>
     <r>
@@ -1310,18 +1057,6 @@
   <si>
     <t>เป็นส่วนหนึ่งในการแก้ไขคำร้องการลา
 ในกรณีที่อยู่ในหน้าปฏิทิน ไม่สามารถย้ายคำร้องการลาได้</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-054</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-055</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-056</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-057</t>
   </si>
   <si>
     <t>เป็นส่วนหนึ่งในการค้นหาคำร้องการลา ซึ่งสามารถค้นหา
@@ -1471,15 +1206,6 @@
     </r>
   </si>
   <si>
-    <t>TC-LEAVE-EMP-058</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-059</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-060</t>
-  </si>
-  <si>
     <t>Type of leave : ลาพักร้อนที่เหลือจากปีก่อน
 Duration : 25-08-2021 to 25-08-2021
 Amount : 1
@@ -1507,92 +1233,11 @@
 Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
   </si>
   <si>
-    <t>Type of leave : ลากิจ/ลาพักร้อน
-Duration : 31-08-2021 to 31-08-2021
-Amount : 1
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-008
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <t>Type of leave : ลากิจ/ลาพักร้อน
-Duration : 13-09-2021 to 24-09-2021
-Amount : 10
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-011
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <t>Type of leave : ลากิจ/ลาพักร้อน
-Duration : 1-11-2021 to 16-11-2021
-Amount : 12
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-015
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <t>Type of leave : ลาพักร้อนที่เหลือจากปีก่อน
-Duration : 23-11-2021 to 25-11-2021
-Amount : 3
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-017
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <t>Type of leave : ลากิจ/ลาพักร้อน
-Duration : 28-08-2021 to 29-08-2021
-Amount : 2
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-019
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
     <t>เป็นส่วนหนึ่งในการยื่นคำร้องการลา
 ไม่สามารถยื่นคำร้องการลาในวันหยุดนักขัตฤกษ์ได้
 โดยยึดวันหยุดนักขัตฤกษ์ตามธนาคารแห่งประเทศไทย</t>
   </si>
   <si>
-    <t>Type of leave : ลากิจ/ลาพักร้อน
-Duration : 13-10-2021 to 13-10-2021
-Amount : 1
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-021
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <t>Type of leave : ลากิจ/ลาพักร้อน
-Duration : 13-10-2021 to 13-10-2021
-Amount : 1
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-022
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <t>Type of leave : ลาอื่น ๆ
-Duration : 11-01-2022 to 12-01-2022
-Amount : 2
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-023
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <t>Type of leave : ลาอื่น ๆ
-Duration : 13-01-2022 to 14-01-2022
-Amount : 2
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-024
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">พนักงานแก้ไขประเภทการลาครึ่งวันสำเร็จ สถานะรออนุมัติ
 </t>
@@ -1608,40 +1253,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">พนักงานแก้ไขประเภทการลาครึ่งวันไม่สำเร็จ สถานะรออนุมัติ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-061</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-062</t>
-  </si>
-  <si>
-    <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ต และต้องผ่านการทดสอบ
-ในเทสต์เคส TC-LEAVE-EMP-025</t>
-  </si>
-  <si>
-    <t>Type of leave : ลาอื่น ๆ
-Duration : 20-08-2021 to 20-08-2021
-Amount : 1
-Hours : 2
-half day leave : Morning
-Description : TC-LEAVE-EMP-027
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
     <t>Type of leave : ลาอื่น ๆ</t>
   </si>
   <si>
@@ -1652,9 +1263,6 @@
   </si>
   <si>
     <t>half day leave : Afternoon</t>
-  </si>
-  <si>
-    <t>half day leave : Morning</t>
   </si>
   <si>
     <t>-</t>
@@ -1894,45 +1502,9 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ตในขณะทดสอบขั้นตอนที่ 1.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
-และมีโควตาการลาพักกิจตลอดปีทั้งหมด 12 ครั้ง
-โดยแบ่งเป็น ลากิจ/ลาพักร้อน 10 ครั้ง
-ลาที่เหลือจากปีก่อน 2 ครั้ง
-และพนักงานสามารถลาป่วย ลาอื่น ๆ
-และลาโดยไม่รับค่าจ้างได้
-โดยไม่จำกัดจำนวนครั้ง</t>
-    </r>
-  </si>
-  <si>
     <t>การแจ้งเตือน</t>
   </si>
   <si>
-    <t>TC-LEAVE-EMP-063</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-064</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-065</t>
-  </si>
-  <si>
     <t>พนักงานลืมระบุ Type of day leave</t>
   </si>
   <si>
@@ -1946,12 +1518,6 @@
   </si>
   <si>
     <t>พนักงานลืมระบุ Reason</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-066</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-067</t>
   </si>
   <si>
     <t>เป็นส่วนหนึงในระบบการลา หากไม่ระบุประเภทการลา
@@ -1980,9 +1546,6 @@
     <t>Defect ID</t>
   </si>
   <si>
-    <t>TC-LEAVE-EMP-068</t>
-  </si>
-  <si>
     <t>DEF-001</t>
   </si>
   <si>
@@ -2000,27 +1563,6 @@
   <si>
     <t>ผู้ใช้ไม่สามารถเพิ่มวันที่ในคำลาประเภทลาพักร้อนที่เหลือจากปีก่อนได้
 เนื่องจากวันที่สิ้นสุดถูกกำหนดไว้ในเดือนมีนาคม</t>
-  </si>
-  <si>
-    <r>
-      <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ตในขณะทดสอบขั้นตอนที่ 1.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
-และมีโควตาการลาพักกิจตลอดปีทั้งหมด 12 ครั้ง
-โดยแบ่งเป็น ลากิจ/ลาพักร้อน 10 ครั้ง
-ลาที่เหลือจากปีก่อน 2 ครั้ง
-และพนักงานสามารถลาป่วย ลาอื่น ๆ
-และลาโดยไม่รับค่าจ้างได้
-โดยไม่จำกัดจำนวนครั้ง</t>
-    </r>
   </si>
   <si>
     <t>ไม่มีแจ้งเตือนเมื่อผู้ใช้การทำรายการยื่นคำร้องการลาเกินจำนวนโควตา</t>
@@ -2059,15 +1601,6 @@
     </r>
   </si>
   <si>
-    <t>Type of leave : ลาพักร้อนที่เหลือจากปีก่อน
-Duration : 23-11-2021 to 25-11-2021
-Amount : 3
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-018
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
     <t>ไม่สามารถทำรายการลาได้ในวันหยุดเสาร์-อาทิตย์</t>
   </si>
   <si>
@@ -2217,106 +1750,6 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานเพิ่มคำร้องการลาย้อนหลังไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานเพิ่มคำร้องการลากิจ/ลาพักร้อนครบจำนวนโควตาไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานเพิ่มคำร้องการลากิจ/ลาพักร้อนเกินจำนวนโควตาไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานยื่นคำร้องการลาในปีถัดไปไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
       <t>1. พนักงานเพิ่มคำร้องลากิจ/ลาพักร้อนสำเร็จ สถานะรออนุมัติ</t>
     </r>
     <r>
@@ -2375,163 +1808,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">พนักงานยื่นคำร้องการลาครึ่งวันไม่สำเร็จ  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Negative Case)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ตในขณะทดสอบขั้นตอนที่ 1.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-และต้องผ่านการทดสอบ
-ในเทสต์เคส TC-LEAVE-EMP-003</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ตในขณะทดสอบขั้นตอนที่ 1.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-และต้องผ่านการทดสอบ
-ในเทสต์เคส TC-LEAVE-EMP-005</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ตในขณะทดสอบขั้นตอนที่ 1.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-และต้องผ่านการทดสอบ
-ในเทสต์เคส TC-LEAVE-EMP-025</t>
-    </r>
-  </si>
-  <si>
     <t>เมื่อเปลี่ยนแปลงข้อมูลเสร็จแล้ว เส้นทางที่จะไปในหน้าถัดไปถูกต้องหรือไม่
 เนื่องจากไม่มีปุ่มไปหน้านั้น ไม่สามารถกดไปหน้านั้นได้ ต้องเปลี่ยนแปลงเท่านั้น
 แต่ไม่สามารถเปลี่ยนแปลงอะไร แถบ status ว่างเปล่า (ซ่อนไว้)
 แต่ใน admin, hr role มีปุ่ม leave list ที่สามารถไปหน้านั้นได้</t>
   </si>
   <si>
-    <t>Type of leave : ลาป่วย</t>
-  </si>
-  <si>
-    <t>Duration : 20-08-2021 to 23-08-2021</t>
-  </si>
-  <si>
     <t>Description : TC-LEAVE-EMP-006 Edit</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ตในขณะทดสอบขั้นตอนที่ 1.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-และต้องผ่านการทดสอบ
-ในเทสต์เคส TC-LEAVE-EMP-006</t>
-    </r>
-  </si>
-  <si>
-    <t>Reason : เป็นส่วนหนึ่งในการทดสอบ Edit no internet</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ตในขณะทดสอบขั้นตอนที่ 1.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-และต้องผ่านการทดสอบ
-ในเทสต์เคส TC-LEAVE-EMP-007</t>
-    </r>
-  </si>
-  <si>
     <t>DEF-003</t>
   </si>
   <si>
     <t>DEF-004</t>
   </si>
   <si>
-    <t>Type of leave : ลาป่วย
-Description : , TC-LEAVE-EMP-038</t>
-  </si>
-  <si>
     <t>เมื่อคำร้องการลาถูกอนุมัติแล้ว ผู้ใช้ไม่สามารถแก้ไขข้อมูลได้</t>
-  </si>
-  <si>
-    <t>Type of leave : ลาอื่น ๆ
-Description : , TC-LEAVE-EMP-039</t>
   </si>
   <si>
     <r>
@@ -2623,81 +1915,6 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานแก้ไขประเภทคำร้องการลาไม่สำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Information of leave ที่ Leave ID : 3723
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขวันที่คำร้องการลาไม่สำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Information of leave ที่ Leave ID : 3724
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขคำอธิบายคำร้องการลาไม่สำเร็จสถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Information of leave ที่ Leave ID : 3725
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
       <t>1. พนักงานแก้ไขเหตุผลคำร้องการลาสำเร็จ สถานะรออนุมัติ</t>
     </r>
     <r>
@@ -2725,56 +1942,6 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานแก้ไขเหตุผลคำร้องการลาไม่สำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Information of leave ที่ Leave ID : 3726
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานยื่นคำร้องการลาครึ่งวันไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
       <t>1. พนักงานยื่นคำร้องการลาในวันหยุดนักขัตฤกษ์ไม่สำเร็จ</t>
     </r>
     <r>
@@ -2815,10 +1982,6 @@
    1.4 กดปุ่ม Submit
    1.6 กดปุ่ม Information of leave ที่ Leave ID : 3732</t>
     </r>
-  </si>
-  <si>
-    <t>Type of leave : ลาอื่น ๆ
-Description : , TC-LEAVE-EMP-040</t>
   </si>
   <si>
     <r>
@@ -2926,10 +2089,6 @@
   </si>
   <si>
     <t>เมื่อคำร้องการลาถูกไม่อนุมัติแล้ว ผู้ใช้ไม่สามารถแก้ไขข้อมูลได้</t>
-  </si>
-  <si>
-    <t>Type of leave : ลาโดยไม่รับค่าจ้าง
-Description : , TC-LEAVE-EMP-041</t>
   </si>
   <si>
     <r>
@@ -3169,9 +2328,6 @@
     <t>Date : 01-07-2021 to 31-07-2021</t>
   </si>
   <si>
-    <t>Date : 01-01-2021 to 31-12-2021</t>
-  </si>
-  <si>
     <t>Date : 01-01-2020 to 31-12-2020</t>
   </si>
   <si>
@@ -3244,29 +2400,6 @@
       <t xml:space="preserve">
     1.1  กดปุ่ม My Leave
     1.2 ตรวจสอบคำร้องการลา Leave ID : 3727</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานติดตามสถานะคำร้องการลาไม่สำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1  กดปุ่ม My Leave
-    1.2 ตรวจสอบคำร้องการลา Leave ID : 3723</t>
     </r>
   </si>
   <si>
@@ -3380,7 +2513,7 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุวันที่ไม่สำเร็จ</t>
+      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุเดือนสำเร็จ สถานะพบคำร้อง</t>
     </r>
     <r>
       <rPr>
@@ -3404,7 +2537,7 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุเดือนสำเร็จ สถานะพบคำร้อง</t>
+      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุเดือนสำเร็จ สถานะไม่พบคำร้อง</t>
     </r>
     <r>
       <rPr>
@@ -3428,7 +2561,7 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุเดือนสำเร็จ สถานะไม่พบคำร้อง</t>
+      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุปีสำเร็จ สถานะพบคำร้อง</t>
     </r>
     <r>
       <rPr>
@@ -3452,7 +2585,7 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุเดือนไม่สำเร็จ</t>
+      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุปีสำเร็จ สถานะไม่พบคำร้อง</t>
     </r>
     <r>
       <rPr>
@@ -3465,100 +2598,6 @@
     1.1  กดปุ่ม My Leave
     1.2 กรอกข้อมูลตามที่ระบุใน Input Data
     1.3 กดปุ่ม Search</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุปีสำเร็จ สถานะพบคำร้อง</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1  กดปุ่ม My Leave
-    1.2 กรอกข้อมูลตามที่ระบุใน Input Data
-    1.3 กดปุ่ม Search</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุปีสำเร็จ สถานะไม่พบคำร้อง</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1  กดปุ่ม My Leave
-    1.2 กรอกข้อมูลตามที่ระบุใน Input Data
-    1.3 กดปุ่ม Search</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุปีไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1  กดปุ่ม My Leave
-    1.2 กรอกข้อมูลตามที่ระบุใน Input Data
-    1.3 กดปุ่ม Search</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ตในขณะทดสอบขั้นตอนที่ 1.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
-และเคยยื่นคำร้องการลาในระบบ</t>
     </r>
   </si>
   <si>
@@ -3577,38 +2616,6 @@
 Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
   </si>
   <si>
-    <t>Type of leave : ลาโดยไม่รับค่าจ้าง
-Duration : 02-09-2021 to 06-09-2021
-Amount : 3
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-007
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานยื่นคำร้องการลาไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : ลากิจ/ลาพักร้อน,
-Duration : 31-08-2021 to 31-08-2021, Amount : 1, Hours : 0
-half day leave : - , Description : TC-LEAVE-EMP-008
-Reason : เป็นส่วนหนึ่งในการทดสอบ
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
     <t>Type of leave : ลากิจ/ลาพักร้อน
 Duration : 02-08-2021 to 02-08-2021
 Amount : 1
@@ -3618,86 +2625,6 @@
 Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
   </si>
   <si>
-    <t>Type of leave : ลากิจ/ลาพักร้อน
-Duration : 04-08-2021 to 04-08-2021
-Amount : 1
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-010
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานเพิ่มคำร้องการลาย้อนหลังไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : ลากิจ/ลาพักร้อน,
-Duration : 04-08-2021 to 04-08-2021, Amount : 1, Hours : 0
-half day leave : - , Description : TC-LEAVE-EMP-010
-Reason : เป็นส่วนหนึ่งในการทดสอบ
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <t>Type of leave : ลากิจ/ลาพักร้อน
-Duration : 24-09-2021 to 01-10-2021
-Amount : 10
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-012
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานเพิ่มคำร้องการลากิจ/ลาพักร้อนครบจำนวนโควตาไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : ลากิจ/ลาพักร้อน,
-Duration : 24-09-2021 to 01-10-2021, Amount : 10, Hours : 0
-half day leave : - , Description : TC-LEAVE-EMP-012
-Reason : เป็นส่วนหนึ่งในการทดสอบ
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <t>Type of leave : ลาพักร้อนที่เหลือจากปีก่อน
-Duration : 05-10-2021 to 06-10-2021
-Amount : 2
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-013
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3725,70 +2652,6 @@
     </r>
   </si>
   <si>
-    <t>Type of leave : ลาพักร้อนที่เหลือจากปีก่อน
-Duration : 04-10-2021 to 05-10-2021
-Amount : 2
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-014
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานเพิ่มคำร้องการลาพักร้อนที่เหลือจากปีก่อน ครบจำนวนโควตาไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานเพิ่มคำร้องการลาพักร้อนที่เหลือจากปีก่อน ครบจำนวนโควตาไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : ลากิจ/ลาพักร้อน,
-Duration : 04-10-2021 to 05-10-2021, Amount : 2, Hours : 0
-half day leave : - , Description : TC-LEAVE-EMP-014
-Reason : เป็นส่วนหนึ่งในการทดสอบ
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3824,73 +2687,6 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานเพิ่มคำร้องการลาพักร้อนที่เหลือจากปีก่อน ครบจำนวนโควตาไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก  ดังนี้ Applicant : Nipaphorn Kh,
-Type of leave : ลาพักร้อนที่เหลือจากปีก่อน
-และไม่สามารถเลือกวันที่ได้ เนื่องจากไม่สามารถเลือกวันที่ในปฏิทินได้
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Type of leave : ลากิจ/ลาพักร้อน
-Duration : 01-11-2021 to 16-11-2021
-Amount : 12
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-016
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานเพิ่มคำร้องการลากิจ/ลาพักร้อนเกินจำนวนโควตาไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : ลากิจ/ลาพักร้อน,
-Duration : 01-11-2021 to 16-11-2021, Amount : 12, Hours : 0
-half day leave : - , Description : TC-LEAVE-EMP-016
-Reason : เป็นส่วนหนึ่งในการทดสอบ
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
       <t>1. พนักงานเพิ่มคำร้องการลาพักร้อนที่เหลือจากปีก่อน เกินจำนวนโควตาสำเร็จ</t>
     </r>
     <r>
@@ -3918,88 +2714,6 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานเพิ่มคำร้องการลาพักร้อนที่เหลือจากปีก่อน เกินจำนวนโควตาไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานเพิ่มคำร้องการลาพักร้อนที่เหลือจากปีก่อน เกินจำนวนโควตาไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : ลาพักร้อนที่เหลือจากปีก่อน
-Duration : 23-11-2021 to 25-11-2021, Amount : 3, Hours : 0
-half day leave : - , Description : TC-LEAVE-EMP-018
-Reason : เป็นส่วนหนึ่งในการทดสอบ
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานเพิ่มคำร้องการลาพักร้อนที่เหลือจากปีก่อน เกินจำนวนโควตาไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้ Applicant : Nipaphorn Kh,
-Type of leave : ลาพักร้อนที่เหลือจากปีก่อน
-และไม่สามารถเลือกวันที่ได้ เนื่องจากไม่สามารถเลือกวันที่ในปฏิทินได้</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
       <t>1. พนักงานยื่นคำร้องการลาในวันเสาร์-อาทิตย์สำเร็จ สถานะรออนุมัติ</t>
     </r>
     <r>
@@ -4043,186 +2757,6 @@
 เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้ Applicant : Nipaphorn Kh,
 Type of leave : ลากิจ/ลาพักร้อน
 และไม่สามารถเลือกวันที่ที่ตรงกับเสาร์- อาทิตย์ได้ เนื่องจากเป็นวันหยุด</t>
-    </r>
-  </si>
-  <si>
-    <t>Type of leave : ลากิจ/ลาพักร้อน
-Duration : 04-09-2021 to 05-09-2021
-Amount : 2
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-020
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานยื่นคำร้องการลาในปีถัดไปไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : ลาอื่น ๆ,
-Duration : 13-01-2022 to 14-01-2022, Amount : 2, Hours : 0
-half day leave : - , Description : TC-LEAVE-EMP-024
-Reason : เป็นส่วนหนึ่งในการทดสอบ
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <t>Type of leave : ลาอื่น ๆ
-Duration : 03-09-2021 to 03-09-2021
-Amount : 1
-Hours : 3
-half day leave : Morning
-Description : TC-LEAVE-EMP-025
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <t>Type of leave : ลาอื่น ๆ
-Duration : 03-09-2021 to 06-09-2021
-Amount : 2
-Hours : 2
-half day leave : Afternoon
-Description : TC-LEAVE-EMP-026
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานยื่นคำร้องการลาครึ่งวันไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : ลาอื่น ๆ,
-Duration : 20-08-2021 to 20-08-2021, Amount : 1, Hours : 1
-half day leave : - , Description : TC-LEAVE-EMP-027
-Reason : เป็นส่วนหนึ่งในการทดสอบ
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขประเภทคำร้องการลาไม่สำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : ลาป่วย,
-Duration : 19-08-2021 to 20-08-2021, Amount : 2, Hours : 0
-half day leave : - , Description : TC-LEAVE-EMP-003
-Reason : เป็นส่วนหนึ่งในการทดสอบ
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขวันที่คำร้องการลาไม่สำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : ลาป่วย,
-Duration : 20-08-2021 to 23-08-2021, Amount : 3, Hours : 0
-half day leave : - , Description : TC-LEAVE-EMP-005
-Reason : เป็นส่วนหนึ่งในการทดสอบ
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <t>Description : TC-LEAVE-EMP-006 Edit version 2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขคำอธิบายคำร้องการลาไม่สำเร็จสถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : ลาอื่นๆ,
-Duration : 01-09-2021 to 01-09-2021, Amount : 1, Hours : 0
-half day leave : - , Description : TC-LEAVE-EMP-006 Edit version 2
-Reason : เป็นส่วนหนึ่งในการทดสอบ
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
     </r>
   </si>
   <si>
@@ -4292,91 +2826,6 @@
 ลาพักร้อนที่เหลือจากปีก่อน 0.0/2.0 ลาป่วย : 0.0, ลาอื่น ๆ  : 0.0, ลาโดยไม่รับค่าจ้าง : 0.0
    1.6 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
 เป็นข้อมูลที่ผู้ใช้เลือก และเหตุผลของการลาเปลี่ยนแปลงเป็น "เป็นส่วนหนึ่งในการทดสอบ Edit"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขเหตุผลคำร้องการลาไม่สำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : "ลาโดยไม่รับค่าจ้าง"
-Duration : 02-09-2021 to 06-09-2021, Amount : 3, Hours : 0
-half day leave : - , Description : TC-LEAVE-EMP-007
-Reason : เป็นส่วนหนึ่งในการทดสอบ Edit no internet
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขประเภทการลาครึ่งวันไม่สำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Information of leave ที่ Leave ID : 3732
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขประเภทการลาครึ่งวันไม่สำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
-Applicant : Nipaphorn Kh, Type of leave : ลาอื่นๆ,
-Duration : 03-09-2021 to 03-09-2021, Amount : 1, Hours : 3
-half day leave : Morning , Description : TC-LEAVE-EMP-025
-Reason : เป็นส่วนหนึ่งในการทดสอบ
-  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
     </r>
   </si>
   <si>
@@ -4473,216 +2922,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ตในขั้นตอนที่ 1.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
-และมีคำร้องการลา สถานะรออนุมัติอยู่ในระบบ
-Test Case ID : TC-LEAVE-EMP-003</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ตในขั้นตอนที่ 1.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
-และมีคำร้องการลา สถานะอนุมัติอยู่ในระบบ
-Test Case ID : TC-LEAVE-EMP-007</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ตในขั้นตอนที่ 1.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
-และมีคำร้องการลา สถานะไม่อนุมัติอยู่ในระบบ
-Test Case ID : TC-LEAVE-EMP-009</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานติดตามสถานะคำร้องการลาไม่สำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  1.1 เมื่อกดปุ่ม My Leave  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานติดตามสถานะคำร้องการลาไม่สำเร็จ สถานะอนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1  กดปุ่ม My Leave
-    1.2 ตรวจสอบคำร้องการลา Leave ID : 3726</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานติดตามสถานะคำร้องการลาไม่สำเร็จ สถานะอนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  1.1 เมื่อกดปุ่ม My Leave  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานติดตามสถานะคำร้องการลาไม่สำเร็จ สถานะไม่อนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1  กดปุ่ม My Leave
-    1.2 ตรวจสอบคำร้องการลา Leave ID : 3727</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานติดตามสถานะคำร้องการลาไม่สำเร็จ สถานะไม่อนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  1.1 เมื่อกดปุ่ม My Leave  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <t>ผู้ใช้ต้องมีสัญญาณอินเตอร์เน็ต
-พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
-และเคยยื่นคำร้องการลาในระบบ
-Test Case ID : TC-LEAVE-EMP-015</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ตในขั้นตอนที่ 1.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
-และเคยยื่นคำร้องการลาในระบบ
-Test Case ID : TC-LEAVE-EMP-015</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="14"/>
         <color theme="1"/>
@@ -4712,51 +2951,6 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานติดตามสถานะคำร้องการลาไม่สำเร็จ สถานะคำร้องถูกลบ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1  กดปุ่ม My Leave
-    1.2 ตรวจสอบคำร้องการลา Leave ID : 3730</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานติดตามสถานะคำร้องการลาไม่สำเร็จ สถานะคำร้องถูกลบ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  1.1 เมื่อกดปุ่ม My Leave  จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
       <t>1. พนักงานติดตามสถานะคำร้องการลาสำเร็จ สถานะคำร้องถูกลบ</t>
     </r>
     <r>
@@ -4773,30 +2967,6 @@
   </si>
   <si>
     <t>DEF-006</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุวันที่ไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบแสดงข้อความในช่องกรอกวันที่ 02-08-2021  to 24-08-2021
-   1.3 เมื่อกดปุ่ม Search จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
   </si>
   <si>
     <r>
@@ -5094,54 +3264,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุเดือนไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบแสดงข้อความในช่องกรอกวันที่ 01-09-2021 to 30-09-2021
-   1.3 เมื่อกดปุ่ม Search จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุปีไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบแสดงข้อความในช่องกรอกวันที่ 01-01-2021 to 31-12-2021
-   1.3 เมื่อกดปุ่ม Search จะไม่สามารถทำรายการต่อได้ เนื่องจากไม่มีสัญญาณอินเตอร์เน็ต</t>
-    </r>
-  </si>
-  <si>
     <t>Date : 01-01-2022 to 31-12-2022</t>
   </si>
   <si>
@@ -5419,14 +3541,6 @@
     </r>
   </si>
   <si>
-    <t>Duration : 30-08-2021 to 30-08-2021
-Amount : 1
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-064
-Reason : เป็นส่วนหนึ่งในการทดสอบการแจ้งเตือน</t>
-  </si>
-  <si>
     <r>
       <t>1. พนักงานลืมระบุ Type of day leave</t>
     </r>
@@ -5536,14 +3650,6 @@
 Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
   </si>
   <si>
-    <t>Type of leave : ลาป่วย
-Duration : 30-08-2021 to 30-08-2021
-Amount : 1
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-067</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5567,21 +3673,6 @@
     </r>
   </si>
   <si>
-    <t>Type of leave : ลาโดยไม่รับค่าจ้าง
-Duration : 30-08-2021 to 30-08-2021
-Amount : 1
-Hours : 3
-Description : TC-LEAVE-EMP-066
-Reason : เป็นส่วนหนึ่งในการทดสอบการแจ้งเตือน</t>
-  </si>
-  <si>
-    <t>Type of leave : ลาอื่น ๆ
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-065
-Reason : เป็นส่วนหนึ่งในการทดสอบการแจ้งเตือน</t>
-  </si>
-  <si>
     <r>
       <t>1. พนักงานลืมระบุ half day leave</t>
     </r>
@@ -5772,9 +3863,6 @@
     </r>
   </si>
   <si>
-    <t>TC-LEAVE-EMP-069</t>
-  </si>
-  <si>
     <t>พนักงานไม่ระบุทุกอย่างในการยื่นคำร้องการลา</t>
   </si>
   <si>
@@ -5964,9 +4052,6 @@
   </si>
   <si>
     <t>การเพิ่มข้อความ</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-EMP-070</t>
   </si>
   <si>
     <t>พนักงานเพิ่มวันที่โดยการพิมพ์</t>
@@ -6165,37 +4250,6 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานเพิ่มคำร้องลาโดยไม่รับค่าจ้างสำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก
-   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
-   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
-Leave ID : 3726, Submit Date : 25-08-2021 11:34
-The applicant : "test_it_role", Type of leave : "ลาโดยไม่รับค่าจ้าง"
-Start date (Since) : 02-09-2021, End date (Until) : 06-09-2021
-Amount the day : 3.000, Status : "Waiting for approve"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
       <t>1. พนักงานเพิ่มคำร้องการลาย้อนหลังสำเร็จ สถานะรออนุมัติ</t>
     </r>
     <r>
@@ -6371,37 +4425,6 @@
 The applicant : "test_it_role", Type of leave : "ลาอื่น ๆ"
 Start date (Since) : 01-09-2021, End date (Until) : 01-09-2021
 Amount the day : 1.000, Status : "Waiting for approve"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานเพิ่มคำร้องลาโดยไม่รับค่าจ้างสำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก
-   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
-   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
-Leave ID : เลขรหัสสำหรับการลา, Submit Date : วันและเวลา ณ ขณะที่ทำการทดสอบ
-The applicant : "test_it_role", Type of leave : "ลาโดยไม่รับค่าจ้าง"
-Start date (Since) : 02-09-2021, End date (Until) : 06-09-2021
-Amount the day : 3.000, Status : "Waiting for approve"</t>
     </r>
   </si>
   <si>
@@ -6979,14 +5002,296 @@
     </r>
   </si>
   <si>
-    <t>TC-LEAVE-EMP-071</t>
-  </si>
-  <si>
     <t>ตรวจสอบความถูกต้องของจำนวนวันลาที่เหลืออยู่</t>
   </si>
   <si>
     <t>เป็นส่วนหนึ่งในการตรวจสอบข้อมูลจำวันวันลาที่เหลืออยู่
 ซึ่งผู้ใช้สามารถตรวจสอบข้อมูลได้</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาโดยไม่รับค่าจ้าง
+Duration : 02-09-2021 to 05-09-2021
+Amount : 3
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-007
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานเพิ่มคำร้องลาโดยไม่รับค่าจ้างสำเร็จ สถานะรออนุมัติ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก
+   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
+   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
+Leave ID : เลขรหัสสำหรับการลา, Submit Date : วันและเวลา ณ ขณะที่ทำการทดสอบ
+The applicant : "test_it_role", Type of leave : "ลาโดยไม่รับค่าจ้าง"
+Start date (Since) : 02-09-2021, End date (Until) : 05-09-2021
+Amount the day : 3.000, Status : "Waiting for approve"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานเพิ่มคำร้องลาโดยไม่รับค่าจ้างสำเร็จ สถานะรออนุมัติ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก
+   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
+   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
+Leave ID : 3726, Submit Date : 25-08-2021 11:34
+The applicant : "test_it_role", Type of leave : "ลาโดยไม่รับค่าจ้าง"
+Start date (Since) : 02-09-2021, End date (Until) : 05-09-2021
+Amount the day : 3.000, Status : "Waiting for approve"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>ผู้ใช้ต้องมีสัญญาณอินเตอร์เน็ต</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
+และมีโควตาการลาพักกิจตลอดปีทั้งหมด 12 ครั้ง
+โดยแบ่งเป็น ลากิจ/ลาพักร้อน 10 ครั้ง
+ลาที่เหลือจากปีก่อน 2 ครั้ง
+และพนักงานสามารถลาป่วย ลาอื่น ๆ
+และลาโดยไม่รับค่าจ้างได้
+โดยไม่จำกัดจำนวนครั้ง</t>
+    </r>
+  </si>
+  <si>
+    <t>Duration : 31-08-2021 to 31-08-2021
+Amount : 1
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-008
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานยื่นคำร้องการลาไม่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก ดังนี้
+Applicant : Nipaphorn Kh, Type of leave : ลากิจ/ลาพักร้อน,
+Duration : 31-08-2021 to 31-08-2021, Amount : 1, Hours : 0
+half day leave : - , Description : TC-LEAVE-EMP-008
+Reason : เป็นส่วนหนึ่งในการทดสอบ
+  1.4 เมื่อกดปุ่ม Submit  จะไม่สามารถทำรายการต่อได้ เนื่องจากผู้ใช้ไม่ได้กรอกประเภทของการลา
+ทำให้ไม่สามารถยื่นคำลาได้ และระบบจะแสดงข้อความแจ้งเตือน "โปรดเลือกหนึ่งในตัวเลือกเหล่านี้"</t>
+    </r>
+  </si>
+  <si>
+    <t>Type of leave : ลากิจ/ลาพักร้อน
+Duration : 13-09-2021 to 24-09-2021
+Amount : 10
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-010
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาพักร้อนที่เหลือจากปีก่อน
+Duration : 05-10-2021 to 06-10-2021
+Amount : 2
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-011
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาพักร้อนที่เหลือจากปีก่อน
+Duration : 23-11-2021 to 25-11-2021
+Amount : 3
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-013
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <t>Type of leave : ลากิจ/ลาพักร้อน
+Duration : 28-08-2021 to 29-08-2021
+Amount : 2
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-014
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <t>Type of leave : ลากิจ/ลาพักร้อน
+Duration : 04-09-2021 to 05-09-2021
+Amount : 2
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-015
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <t>Type of leave : ลากิจ/ลาพักร้อน
+Duration : 13-10-2021 to 13-10-2021
+Amount : 1
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-016
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <t>Type of leave : ลากิจ/ลาพักร้อน
+Duration : 13-10-2021 to 13-10-2021
+Amount : 1
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-017
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาอื่น ๆ
+Duration : 11-01-2022 to 12-01-2022
+Amount : 2
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-018
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาอื่น ๆ
+Duration : 03-09-2021 to 03-09-2021
+Amount : 1
+Hours : 3
+half day leave : Morning
+Description : TC-LEAVE-EMP-019
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาอื่น ๆ
+Duration : 03-09-2021 to 06-09-2021
+Amount : 2
+Hours : 2
+half day leave : Afternoon
+Description : TC-LEAVE-EMP-020
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาป่วย
+Description : , TC-LEAVE-EMP-026</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาอื่น ๆ
+Description : , TC-LEAVE-EMP-027</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาอื่น ๆ
+Description : , TC-LEAVE-EMP-028</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาโดยไม่รับค่าจ้าง
+Description : , TC-LEAVE-EMP-029</t>
+  </si>
+  <si>
+    <t>Duration : 30-08-2021 to 30-08-2021
+Amount : 1
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-045
+Reason : เป็นส่วนหนึ่งในการทดสอบการแจ้งเตือน</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาอื่น ๆ
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-046
+Reason : เป็นส่วนหนึ่งในการทดสอบการแจ้งเตือน</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาโดยไม่รับค่าจ้าง
+Duration : 30-08-2021 to 30-08-2021
+Amount : 1
+Hours : 3
+Description : TC-LEAVE-EMP-047
+Reason : เป็นส่วนหนึ่งในการทดสอบการแจ้งเตือน</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาป่วย
+Duration : 30-08-2021 to 30-08-2021
+Amount : 1
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-048</t>
+  </si>
+  <si>
+    <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ต และต้องผ่านการทดสอบ
+ในเทสต์เคส TC-LEAVE-EMP-019</t>
+  </si>
+  <si>
+    <t>ผู้ใช้ต้องมีสัญญาณอินเตอร์เน็ต
+พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
+และเคยยื่นคำร้องการลาในระบบ
+Test Case ID : TC-LEAVE-EMP-012</t>
+  </si>
+  <si>
+    <t>Type of leave : ลากิจ/ลาพักร้อน
+Duration : 01-11-2021 to 16-11-2021
+Amount : 12
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-EMP-012
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
   </si>
 </sst>
 </file>
@@ -7057,7 +5362,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7097,6 +5402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7141,13 +5452,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7175,12 +5485,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7211,14 +5515,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -7528,144 +5838,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>199604</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>88899</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4749800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2055456</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="รูปภาพ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E6444D-100A-4C8B-9FFF-FF553757F2CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect r="2741"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30654204" y="22224999"/>
-          <a:ext cx="4550196" cy="1966557"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4818164</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2068157</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="รูปภาพ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA9052A-2481-4360-A158-B26E108C5910}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect t="3229"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30594300" y="27901900"/>
-          <a:ext cx="4678464" cy="1903057"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4780064</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2068157</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="รูปภาพ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF82454-6CAC-44E2-AA9A-F8902C74AC65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30556200" y="33439100"/>
-          <a:ext cx="4678464" cy="1966557"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>157843</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>667853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4755705</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>3305628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7682,7 +5862,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7699,104 +5879,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>829128</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>673883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4156529</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2744066</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="รูปภาพ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16E20EB-5939-41A7-ACA5-56A0678B0BB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31309128" y="41277597"/>
-          <a:ext cx="3327401" cy="2070183"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>157843</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4742543</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2064528</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="รูปภาพ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC859AE-589E-4D84-99FC-4ADC10A43578}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect r="2004"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30637843" y="47374628"/>
-          <a:ext cx="4584700" cy="1966557"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>919843</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1020555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4461454</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>3118575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7813,7 +5906,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7833,58 +5926,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1257301</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>526617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4724401</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2595287</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="รูปภาพ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58680017-907F-4927-813E-4066254F4D1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31737301" y="53942817"/>
-          <a:ext cx="3467100" cy="2068670"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>779458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4735374</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>3244011</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7901,7 +5950,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7922,13 +5971,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>353811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3810000</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>2008177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7945,7 +5994,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7966,13 +6015,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>391603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3907392</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>3019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7989,7 +6038,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8010,13 +6059,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>162893</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>749300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4681605</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>3151967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8033,7 +6082,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8053,57 +6102,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4775200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>2093557</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="รูปภาพ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D759990-922C-4ACE-AD66-11609AC02499}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect r="2004"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30645100" y="67868800"/>
-          <a:ext cx="4584700" cy="1966557"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>352007</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1279069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4593773</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>3565624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8120,7 +6126,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8140,234 +6146,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>53360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4028824</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1573511</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="รูปภาพ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD17690-BD03-4AD7-862A-CBDAC3B63C06}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31296429" y="82839217"/>
-          <a:ext cx="3212395" cy="1520151"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1121228</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>61366</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3984171</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1529848</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="รูปภาพ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF40B509-EFEB-4947-A084-194AC5997DA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31601228" y="87919966"/>
-          <a:ext cx="2862943" cy="1468482"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>631373</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>476846</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4309223</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>2426773</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="รูปภาพ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEC40FD-5710-4EF1-95C7-35315B1FB9BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31111373" y="101409189"/>
-          <a:ext cx="3677850" cy="1949927"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4039432</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1592981</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="รูปภาพ 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F4A678-2D37-4DE1-A24D-CBD7A123442A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31379160" y="100238560"/>
-          <a:ext cx="3201232" cy="1542181"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>309339</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4498633</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>2452031</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="รูปภาพ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80389174-0324-406A-B82B-911F3B3D4030}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30937201" y="114587568"/>
-          <a:ext cx="4041432" cy="2142692"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>372307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4038601</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>2314306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8384,7 +6170,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8405,13 +6191,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>293914</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1218802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4709991</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>3886702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8428,7 +6214,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8449,13 +6235,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>880757</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4223657</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>2247520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8472,7 +6258,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8493,13 +6279,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>206829</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1106246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4506427</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>3709265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8516,7 +6302,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8536,190 +6322,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1687286</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>69653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3420946</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>988807</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="รูปภาพ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3865B6A6-933D-4050-B2E6-24F57CA39542}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="32167286" y="136228167"/>
-          <a:ext cx="1733660" cy="919154"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3257660</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1006240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="รูปภาพ 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901D7E1C-AF3D-47AB-9C77-4D45FDCAF38C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="32004000" y="139184743"/>
-          <a:ext cx="1733660" cy="919154"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1611086</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3344746</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>1017125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="รูปภาพ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4475DEF9-AACE-4F3F-8022-376FDEC6123D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="32091086" y="142134771"/>
-          <a:ext cx="1733660" cy="919154"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1458686</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3192346</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>995354</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="รูปภาพ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13AB491-A30A-4797-82D5-E5441384ACD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31938686" y="144246600"/>
-          <a:ext cx="1733660" cy="919154"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1265552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4768967</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>3146387</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8736,7 +6346,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8757,13 +6367,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1121227</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>887946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3984171</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>1866164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8780,7 +6390,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8801,13 +6411,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2285999</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>193851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4822371</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>1063886</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8824,7 +6434,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8844,58 +6454,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1534885</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>37730</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3396342</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>1024639</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="รูปภาพ 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B150106-1CBE-4B8F-A258-1D00A102AC31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="32014885" y="151958759"/>
-          <a:ext cx="1861457" cy="986909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>2002971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4767627</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>4125076</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8912,7 +6478,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8933,13 +6499,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1632857</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>245583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4741757</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>1289213</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8956,7 +6522,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8973,104 +6539,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1643743</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3377403</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>1006240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="รูปภาพ 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C2E202-BBA7-4289-80DC-162F1B737DEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="32123743" y="160411886"/>
-          <a:ext cx="1733660" cy="919154"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1578429</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3200400</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>1017126</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="รูปภาพ 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E060AE8B-DE2E-47BC-BFBE-81DAF7153839}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:srcRect r="6442"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="32058429" y="163623172"/>
-          <a:ext cx="1621971" cy="919154"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>353205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4767876</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>2079554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9087,7 +6566,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9108,13 +6587,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1615440</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>296688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4595875</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>1318607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9131,7 +6610,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9152,13 +6631,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>116467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4037448</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1351357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9175,7 +6654,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9196,13 +6675,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1447801</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>145172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4049487</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>1240348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9219,7 +6698,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9240,13 +6719,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>859971</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>263432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4223498</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>1523260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9263,7 +6742,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9826,11 +7305,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -9848,31 +7327,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="18"/>
+      <c r="H1" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
@@ -9899,2417 +7378,1860 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="147" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="147" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="G13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" s="10" customFormat="1" ht="315" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" s="10" customFormat="1" ht="336" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="10" customFormat="1" ht="189" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="K32" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="10" customFormat="1" ht="294" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" s="10" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" s="10" customFormat="1" ht="147" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" s="10" customFormat="1" ht="147" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" ht="294" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I44" s="16"/>
+      <c r="J44" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I45" s="16"/>
+      <c r="J45" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="409.6" x14ac:dyDescent="0.6">
+      <c r="A46" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.6">
+      <c r="A47" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="I47" s="16"/>
+      <c r="J47" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="168" x14ac:dyDescent="0.6">
+      <c r="A48" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="J48" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="105" x14ac:dyDescent="0.6">
+      <c r="A49" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="I49" s="16"/>
+      <c r="J49" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A50" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" ht="273" x14ac:dyDescent="0.6">
+      <c r="A51" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="I51" s="24"/>
+      <c r="J51" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="273" x14ac:dyDescent="0.6">
+      <c r="A52" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="I52" s="25"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A53" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" ht="126" x14ac:dyDescent="0.6">
+      <c r="A54" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" ht="105" x14ac:dyDescent="0.6">
+      <c r="A55" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" ht="126" x14ac:dyDescent="0.6">
+      <c r="A56" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="126" x14ac:dyDescent="0.6">
+      <c r="A57" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="D57" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>234</v>
+    <row r="58" spans="1:12" ht="126" x14ac:dyDescent="0.6">
+      <c r="A58" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="I58" s="16"/>
+      <c r="J58" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+    <row r="59" spans="1:12" ht="84" x14ac:dyDescent="0.6">
+      <c r="A59" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A60" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+    <row r="61" spans="1:12" ht="126" x14ac:dyDescent="0.6">
+      <c r="A61" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I61" s="16"/>
+      <c r="J61" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="L61" s="4"/>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A62" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="4"/>
     </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+    <row r="63" spans="1:12" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.6">
+      <c r="A63" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="28"/>
     </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="I14" s="21"/>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
     </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
     </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
     </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>234</v>
-      </c>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
     </row>
-    <row r="18" spans="1:11" s="5" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="5" customFormat="1" ht="252" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" s="5" customFormat="1" ht="273" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="5" customFormat="1" ht="273" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="5" customFormat="1" ht="168" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="5" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="5" customFormat="1" ht="168" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" ht="252" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" s="5" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" s="5" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" s="11" customFormat="1" ht="273" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="24" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="11" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-    </row>
-    <row r="35" spans="1:11" s="11" customFormat="1" ht="273" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-    </row>
-    <row r="36" spans="1:11" s="11" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-    </row>
-    <row r="37" spans="1:11" s="11" customFormat="1" ht="273" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-    </row>
-    <row r="38" spans="1:11" s="11" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-    </row>
-    <row r="39" spans="1:11" s="11" customFormat="1" ht="315" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-    </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="I40" s="21"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-    </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" ht="273" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-    </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="1:11" s="11" customFormat="1" ht="336" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="11" customFormat="1" ht="189" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="I44" s="19"/>
-      <c r="K44" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="11" customFormat="1" ht="294" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="11" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="I46" s="19"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-    </row>
-    <row r="47" spans="1:11" s="11" customFormat="1" ht="210" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="11" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-    </row>
-    <row r="49" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" ht="126" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="I50" s="21"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-    </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="I51" s="21"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-    </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" ht="147" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="I52" s="21"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-    </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="I53" s="21"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-    </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" ht="147" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="I54" s="21"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-    </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="I55" s="21"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-    </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="I56" s="21"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-    </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-    </row>
-    <row r="58" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="1:11" s="5" customFormat="1" ht="294" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="I59" s="19"/>
-      <c r="J59" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="5" customFormat="1" ht="168" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="I60" s="19"/>
-      <c r="J60" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="I61" s="19"/>
-      <c r="J61" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="84" x14ac:dyDescent="0.6">
-      <c r="A62" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="I62" s="21"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-    </row>
-    <row r="63" spans="1:11" ht="409.6" x14ac:dyDescent="0.6">
-      <c r="A63" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="I63" s="19"/>
-      <c r="J63" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="K63" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.6">
-      <c r="A64" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="I64" s="19"/>
-      <c r="J64" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="84" x14ac:dyDescent="0.6">
-      <c r="A65" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="I65" s="21"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-    </row>
-    <row r="66" spans="1:12" ht="168" x14ac:dyDescent="0.6">
-      <c r="A66" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="I66" s="19"/>
-      <c r="J66" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="105" x14ac:dyDescent="0.6">
-      <c r="A67" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="I67" s="19"/>
-      <c r="J67" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="84" x14ac:dyDescent="0.6">
-      <c r="A68" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="I68" s="21"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A69" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="273" x14ac:dyDescent="0.6">
-      <c r="A70" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G70" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="H70" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="I70" s="27"/>
-      <c r="J70" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>323</v>
-      </c>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="273" x14ac:dyDescent="0.6">
-      <c r="A71" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="H71" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="I71" s="28"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A72" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A73" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="G73" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="I73" s="21"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" ht="105" x14ac:dyDescent="0.6">
-      <c r="A74" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="G74" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="I74" s="21"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-    </row>
-    <row r="75" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A75" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="G75" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="H75" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="I75" s="19"/>
-      <c r="J75" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A76" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="G76" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="I76" s="19"/>
-      <c r="J76" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A77" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="G77" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="I77" s="19"/>
-      <c r="J77" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="K77" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="84" x14ac:dyDescent="0.6">
-      <c r="A78" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="G78" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="H78" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="I78" s="21"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A79" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A80" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="I80" s="19"/>
-      <c r="J80" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="K80" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="L80" s="5"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A81" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="5"/>
-    </row>
-    <row r="82" spans="1:12" s="32" customFormat="1" ht="42" x14ac:dyDescent="0.6">
-      <c r="A82" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="C82" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="31"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12350,31 +9272,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="18"/>
+      <c r="H1" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
@@ -12401,144 +9323,144 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="147" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="147" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" ht="273" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="G7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/UAT-Testcase-LeaveForm.xlsx
+++ b/UAT-Testcase-LeaveForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\CubeSoftTech_WorkingSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5852F907-CCD9-4BB2-A704-07DACDD6ECA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA7FF87-E256-4492-BB5B-E84DFF50D628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CCCF8952-E977-4E69-B266-ED8C89073CA7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="381">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2326,9 +2326,6 @@
   </si>
   <si>
     <t>Date : 01-07-2021 to 31-07-2021</t>
-  </si>
-  <si>
-    <t>Date : 01-01-2020 to 31-12-2020</t>
   </si>
   <si>
     <t>Date : 03-09-2021 to 03-09-2021</t>
@@ -3323,56 +3320,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุปีสำเร็จ สถานะไม่พบคำร้อง</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1  ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-    1.2 ระบบแสดงข้อความในช่องกรอกวันที่ 01-01-2020 to 31-12-2020
-    1.3 ระบบแสดงข้อความในช่องกรอกวันที่ 01-01-2020 to 31-12-2020
-และระบบแสดงข้อมูลที่ตรงกับวันที่ที่ค้นหา 0 รายการ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุปีสำเร็จ สถานะไม่พบคำร้อง</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1  ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-    1.2 ระบบแสดงข้อความในช่องกรอกวันที่ 01-01-2020 to 31-12-2020
-    1.3 ระบบแสดงข้อความในช่องกรอกวันที่ 01-01-2021 to 31-12-2020
-และระบบแสดงข้อมูลที่ตรงกับวันที่ที่ค้นหา 0 รายการ</t>
-    </r>
-  </si>
-  <si>
     <t>ผู้ใช้ไต้องมีสัญญาณอินเตอร์เน็ต
 พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
 และเคยยื่นคำร้องการลาในระบบ
@@ -4676,68 +4623,6 @@
 The applicant : "test_it_role", Type of leave : "ลากิจ/ลาพักร้อน"
 Start date (Since) : 11-01-2022, End date (Until) : 12-01-2022
 Amount the day : 2.000, Status : "Waiting for approve"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานยื่นคำร้องการลาครึ่งวันสำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก
-   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
-   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
-Leave ID : เลขรหัสสำหรับการลา, Submit Date : วันและเวลา ณ ขณะที่ทำการทดสอบ
-The applicant : "test_it_role", Type of leave : "ลาอื่น ๆ"
-Start date (Since) : 03-09-2021, End date (Until) : 03-09-2021
-Amount the day : 1.000, Status : "Waiting for approve"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานยื่นคำร้องการลาครึ่งวันสำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก
-   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
-   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
-Leave ID : 3732, Submit Date : 26-08-2021 00:33
-The applicant : "test_it_role", Type of leave : "ลาอื่น ๆ"
-Start date (Since) : 03-09-2021, End date (Until) : 03-09-2021
-Amount the day : 1.000, Status : "Waiting for approve"</t>
     </r>
   </si>
   <si>
@@ -5211,15 +5096,6 @@
   </si>
   <si>
     <t>Type of leave : ลาอื่น ๆ
-Duration : 03-09-2021 to 03-09-2021
-Amount : 1
-Hours : 3
-half day leave : Morning
-Description : TC-LEAVE-EMP-019
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
-    <t>Type of leave : ลาอื่น ๆ
 Duration : 03-09-2021 to 06-09-2021
 Amount : 2
 Hours : 2
@@ -5292,6 +5168,124 @@
 half day leave : -
 Description : TC-LEAVE-EMP-012
 Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานยื่นคำร้องการลาในปีที่แล้วสำเร็จ สถานะรออนุมัติ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <t>เป็นส่วนหนึ่งในการยื่นคำร้องการลา
+สามารถยื่นคำร้องการลาในปีก่อนหน้าได้</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาอื่น ๆ
+Duration : 03-12-2020 to 03-12-2020
+Amount : 1
+Hours : -
+half day leave : -
+Description : TC-LEAVE-EMP-019
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <t>Date : 01-01-2019 to 31-12-2019</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานค้นหาคำร้องการลาโดยการระบุปีสำเร็จ สถานะไม่พบคำร้อง</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1  ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+    1.2 ระบบแสดงข้อความในช่องกรอกวันที่ 01-01-2019 to 31-12-2019
+    1.3 ระบบแสดงข้อความในช่องกรอกวันที่ 01-01-2019 to 31-12-2019
+และระบบแสดงข้อมูลที่ตรงกับวันที่ที่ค้นหา 0 รายการ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานยื่นคำร้องการลาครึ่งวันสำเร็จ สถานะรออนุมัติ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก
+   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
+   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
+Leave ID : เลขรหัสสำหรับการลา, Submit Date : วันและเวลา ณ ขณะที่ทำการทดสอบ
+The applicant : "test_it_role", Type of leave : "ลาอื่น ๆ"
+Start date (Since) :  03-12-2020, End date (Until) :  03-12-2020
+Amount the day : 1.000, Status : "Waiting for approve"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานยื่นคำร้องการลาครึ่งวันสำเร็จ สถานะรออนุมัติ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก
+   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
+   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
+Leave ID : 3732, Submit Date : 26-08-2021 00:33
+The applicant : "test_it_role", Type of leave : "ลาอื่น ๆ"
+Start date (Since) :  03-12-2020, End date (Until) : 03-12-2020
+Amount the day : 1.000, Status : "Waiting for approve"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5452,7 +5446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5525,9 +5519,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7308,8 +7305,8 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -7327,14 +7324,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
@@ -7500,10 +7497,10 @@
         <v>43</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>18</v>
@@ -7531,10 +7528,10 @@
         <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>183</v>
@@ -7566,10 +7563,10 @@
         <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="8"/>
@@ -7589,16 +7586,16 @@
         <v>138</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="8"/>
@@ -7618,16 +7615,16 @@
         <v>138</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="8"/>
@@ -7644,19 +7641,19 @@
         <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>196</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="8"/>
@@ -7676,16 +7673,16 @@
         <v>138</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="8"/>
@@ -7705,16 +7702,16 @@
         <v>138</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="8"/>
@@ -7734,16 +7731,16 @@
         <v>138</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="8" t="s">
@@ -7767,16 +7764,16 @@
         <v>138</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="8" t="s">
@@ -7800,7 +7797,7 @@
         <v>138</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>164</v>
@@ -7809,7 +7806,7 @@
         <v>189</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="8" t="s">
@@ -7833,7 +7830,7 @@
         <v>138</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>165</v>
@@ -7842,7 +7839,7 @@
         <v>191</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="8"/>
@@ -7864,16 +7861,16 @@
         <v>138</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>167</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="8"/>
@@ -7895,13 +7892,13 @@
         <v>138</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>192</v>
@@ -7926,7 +7923,7 @@
         <v>138</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>208</v>
@@ -7957,16 +7954,16 @@
         <v>138</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>195</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="8"/>
@@ -7977,25 +7974,25 @@
         <v>57</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>149</v>
+        <v>374</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>148</v>
+        <v>375</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="8"/>
@@ -8015,16 +8012,16 @@
         <v>138</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="8"/>
@@ -8046,7 +8043,7 @@
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="32" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -8065,10 +8062,10 @@
         <v>204</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="12"/>
@@ -8096,10 +8093,10 @@
         <v>205</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="12"/>
@@ -8109,7 +8106,7 @@
       <c r="A28" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -8125,10 +8122,10 @@
         <v>206</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="12"/>
@@ -8138,7 +8135,7 @@
       <c r="A29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -8154,10 +8151,10 @@
         <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="12"/>
@@ -8167,14 +8164,14 @@
       <c r="A30" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>154</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>158</v>
@@ -8183,10 +8180,10 @@
         <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="12"/>
@@ -8206,16 +8203,16 @@
         <v>143</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>211</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="12" t="s">
@@ -8239,7 +8236,7 @@
         <v>143</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>210</v>
@@ -8248,7 +8245,7 @@
         <v>212</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I32" s="16"/>
       <c r="K32" s="12" t="s">
@@ -8269,16 +8266,16 @@
         <v>144</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>214</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="12" t="s">
@@ -8302,7 +8299,7 @@
         <v>144</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>216</v>
@@ -8344,7 +8341,7 @@
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>220</v>
@@ -8411,13 +8408,13 @@
         <v>159</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="12"/>
@@ -8440,13 +8437,13 @@
         <v>159</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="12"/>
@@ -8469,13 +8466,13 @@
         <v>159</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="12"/>
@@ -8492,19 +8489,19 @@
         <v>125</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>159</v>
       </c>
       <c r="F41" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>260</v>
-      </c>
       <c r="H41" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="12"/>
@@ -8542,20 +8539,20 @@
         <v>228</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
@@ -8572,23 +8569,23 @@
         <v>139</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
@@ -8608,20 +8605,20 @@
         <v>229</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="409.6" x14ac:dyDescent="0.6">
@@ -8641,20 +8638,20 @@
         <v>230</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.6">
@@ -8674,20 +8671,20 @@
         <v>231</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I47" s="16"/>
       <c r="J47" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="168" x14ac:dyDescent="0.6">
@@ -8704,23 +8701,23 @@
         <v>139</v>
       </c>
       <c r="E48" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="105" x14ac:dyDescent="0.6">
@@ -8737,23 +8734,23 @@
         <v>139</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>275</v>
+        <v>378</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>276</v>
+        <v>378</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.6">
@@ -8782,26 +8779,26 @@
         <v>137</v>
       </c>
       <c r="D51" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="G51" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>280</v>
-      </c>
       <c r="H51" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I51" s="24"/>
       <c r="J51" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="273" x14ac:dyDescent="0.6">
@@ -8815,19 +8812,19 @@
         <v>137</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E52" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F52" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="F52" s="23" t="s">
-        <v>281</v>
-      </c>
       <c r="G52" s="23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I52" s="25"/>
       <c r="J52" s="11"/>
@@ -8862,16 +8859,16 @@
         <v>179</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I54" s="18"/>
       <c r="J54" s="11"/>
@@ -8891,16 +8888,16 @@
         <v>179</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="11"/>
@@ -8914,29 +8911,29 @@
         <v>172</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>179</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I56" s="16"/>
       <c r="J56" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="126" x14ac:dyDescent="0.6">
@@ -8953,23 +8950,23 @@
         <v>179</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I57" s="16"/>
       <c r="J57" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="126" x14ac:dyDescent="0.6">
@@ -8986,23 +8983,23 @@
         <v>179</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I58" s="16"/>
       <c r="J58" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="84" x14ac:dyDescent="0.6">
@@ -9010,10 +9007,10 @@
         <v>120</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>179</v>
@@ -9022,13 +9019,13 @@
         <v>159</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="8"/>
@@ -9036,7 +9033,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -9054,38 +9051,38 @@
         <v>121</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F61" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F61" s="14" t="s">
+      <c r="G61" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="H61" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A62" s="6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -9104,13 +9101,13 @@
         <v>126</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E63" s="26"/>
       <c r="F63" s="26"/>
@@ -9272,14 +9269,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
@@ -9362,7 +9359,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>20</v>
@@ -9393,7 +9390,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>

--- a/UAT-Testcase-LeaveForm.xlsx
+++ b/UAT-Testcase-LeaveForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\CubeSoftTech_WorkingSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA7FF87-E256-4492-BB5B-E84DFF50D628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A003CDB-F1E7-409C-A801-2A2776F0E499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CCCF8952-E977-4E69-B266-ED8C89073CA7}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="HR,Admin Role" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="386">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1238,21 +1239,6 @@
 โดยยึดวันหยุดนักขัตฤกษ์ตามธนาคารแห่งประเทศไทย</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">พนักงานแก้ไขประเภทการลาครึ่งวันสำเร็จ สถานะรออนุมัติ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Positive Case)</t>
-    </r>
-  </si>
-  <si>
     <t>Type of leave : ลาอื่น ๆ</t>
   </si>
   <si>
@@ -1260,9 +1246,6 @@
   </si>
   <si>
     <t>Reason : เป็นส่วนหนึ่งในการทดสอบ Edit</t>
-  </si>
-  <si>
-    <t>half day leave : Afternoon</t>
   </si>
   <si>
     <t>-</t>
@@ -2167,135 +2150,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขคำร้องการลาโดยการย้ายปุ่มสำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1 กดปุ่ม Calendar
-    1.2 กดปุ่ม Check All Calendar
-    1.3 เลือก ลาอื่น ๆ ในวันที่ 20 สิงหาคม 2021 ย้ายไปที่ 19 สิงหาคม 2021
-    1.4 ทำการ refresh หน้าเพจ
-    1.5 กดปุ่ม My Leave และตรวจสอบข้อมูลของ Leave ID 3724</t>
-    </r>
-  </si>
-  <si>
     <t>ไม่สามารถย้ายข้อมูลการลาได้ในหน้าปฏิทิน</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขคำร้องการลาโดยการย้ายปุ่มไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1 กดปุ่ม Calendar
-    1.2 กดปุ่ม Check All Calendar
-    1.3 เลือก ลาอื่น ๆ ในวันที่ 20 สิงหาคม 2021 ย้ายไปที่ 19 สิงหาคม 2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขคำร้องการลาโดยการย้ายปุ่มสำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1 แสดงปุ่มย่อยให้เลือก (drop down)
-    1.2 ระบบแสดงหน้าจอ (LEAVE008) เพื่อแสดงข้อมูลทั้งหมดของผู้ใช้ 
-    1.3 ตัวเลือก ลาป่วย  ในวันที่ 20 สิงหาคม 2021 ไม่สามารถย้ายไปที่ 19 สิงหาคม 2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขคำร้องการลาโดยการย้ายปุ่มสำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1 แสดงปุ่มย่อยให้เลือก (drop down)
-    1.2 ระบบแสดงหน้าจอ (LEAVE008) เพื่อแสดงข้อมูลทั้งหมดของผู้ใช้ 
-    1.3 ตัวเลือก ลาป่วย  ในวันที่ 20 สิงหาคม 2021 ย้ายไปที่ 19 สิงหาคม 2021
-    1.4 ข้อมูลการลาถูกย้ายไปยังวันที่ 3 สิงหาคม 2021
-    1.5 ระบบแสดงหน้าจอสำหรับข้อมูลการลา (LEAVE003) และข้อมูลมีการเปี่ยนแปลงดังนี้
-Leave ID : 3724, Submit Date : 25-08-2021 11:14
-The applicant : "test_it_role", Type of leave : "ลาป่วย"
-Start date (Since) : 19-08-2021, End date (Until) : 19-08-2021
-Amount the day : 1.000, Status : "Waiting for approve"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานแก้ไขคำร้องการลาโดยการย้ายปุ่มไม่สำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1 แสดงปุ่มย่อยให้เลือก (drop down)
-    1.2 ระบบแสดงหน้าจอ (LEAVE008) เพื่อแสดงข้อมูลทั้งหมดของผู้ใช้ 
-    1.3 ตัวเลือก ลาป่วย  ในวันที่ 20 สิงหาคม 2021 ไม่สามารถย้ายไปที่ 19 สิงหาคม 2021 ได้</t>
-    </r>
   </si>
   <si>
     <t>ผู้ใช้ต้องมีสัญญาณอินเตอร์เน็ต
@@ -4634,68 +4489,6 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานยื่นคำร้องการลาครึ่งวันสำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก
-   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
-   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
-Leave ID : เลขรหัสสำหรับการลา, Submit Date : วันและเวลา ณ ขณะที่ทำการทดสอบ
-The applicant : "test_it_role", Type of leave : "ลาอื่น ๆ"
-Start date (Since) : 03-09-2021, End date (Until) : 06-09-2021
-Amount the day : 2.000, Status : "Waiting for approve"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานยื่นคำร้องการลาครึ่งวันสำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก
-   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
-   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
-Leave ID : 3733, Submit Date : 26-08-2021 00:37
-The applicant : "test_it_role", Type of leave : "ลาอื่น ๆ"
-Start date (Since) : 03-09-2021, End date (Until) : 06-09-2021
-Amount the day : 2.000, Status : "Waiting for approve"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
       <t>1. พนักงานแก้ไขประเภทคำร้องการลาสำเร็จ สถานะรออนุมัติ</t>
     </r>
     <r>
@@ -4784,72 +4577,6 @@
 Amount the day : 1.000, Status : "Waiting for approve"
    1.6 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
 เป็นข้อมูลที่ผู้ใช้เลือก และคำอธิบายของการลาเปลี่ยนแปลงเป็น "TC-LEAVE-EMP-006 Edit"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>พนักงานแก้ไขประเภทการลาครึ่งวันสำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก
-   1.4 ระบบจะแสดงหน้าจอข้อมูลการลาทั้งหมด (LEAVE007) 
-   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
-Leave ID : 3732, Submit Date : 26-08-2021 00:33
-The applicant : "test_it_role", Type of leave : "ลาอื่นๆ"
-Start date (Since) : 03-09-2021, End date (Until) : 03-09-2021
-Amount the day : 1.000, Status : "Waiting for approve"
-   1.6 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก และhalf of day leave ของการลาเปลี่ยนแปลงเป็น "Afternoon"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>พนักงานแก้ไขประเภทการลาครึ่งวันสำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก
-   1.4 ระบบจะแสดงหน้าจอข้อมูลการลาทั้งหมด (LEAVE007) 
-   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
-Leave ID : 3732, Submit Date : 26-08-2021 00:33
-The applicant : "test_it_role", Type of leave : "ลาอื่น ๆ"
-Start date (Since) : 03-09-2021, End date (Until) : 03-09-2021
-Amount the day : 1.000, Status : "Waiting for approve"
-   1.6 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก และhalf of day leave ของการลาเปลี่ยนแปลงเป็น "Afternoon"</t>
     </r>
   </si>
   <si>
@@ -5095,15 +4822,6 @@
 Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
   </si>
   <si>
-    <t>Type of leave : ลาอื่น ๆ
-Duration : 03-09-2021 to 06-09-2021
-Amount : 2
-Hours : 2
-half day leave : Afternoon
-Description : TC-LEAVE-EMP-020
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
     <t>Type of leave : ลาป่วย
 Description : , TC-LEAVE-EMP-026</t>
   </si>
@@ -5149,10 +4867,6 @@
 Hours : 0
 half day leave : -
 Description : TC-LEAVE-EMP-048</t>
-  </si>
-  <si>
-    <t>ผู้ใช้ไม่มีสัญญาณอินเตอร์เน็ต และต้องผ่านการทดสอบ
-ในเทสต์เคส TC-LEAVE-EMP-019</t>
   </si>
   <si>
     <t>ผู้ใช้ต้องมีสัญญาณอินเตอร์เน็ต
@@ -5285,6 +4999,360 @@
 The applicant : "test_it_role", Type of leave : "ลาอื่น ๆ"
 Start date (Since) :  03-12-2020, End date (Until) : 03-12-2020
 Amount the day : 1.000, Status : "Waiting for approve"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานแก้ไขประเภทการลาครึ่งวันและชั่วโมงสำเร็จ สถานะรออนุมัติ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <t>half day leave : Afternoon
+hours : 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานยื่นคำร้องการลาครึ่งวันสำเร็จ สถานะรออนุมัติ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก
+   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
+   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
+Leave ID : เลขรหัสสำหรับการลา, Submit Date : วันและเวลา ณ ขณะที่ทำการทดสอบ
+The applicant : "test_it_role", Type of leave : "ลาอื่น ๆ"
+Start date (Since) : 03-09-2021, End date (Until) : 06-09-2021
+Amount the day : 2.375, Status : "Waiting for approve"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานยื่นคำร้องการลาครึ่งวันสำเร็จ สถานะรออนุมัติ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก
+   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
+   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
+Leave ID : 3733, Submit Date : 26-08-2021 00:37
+The applicant : "test_it_role", Type of leave : "ลาอื่น ๆ"
+Start date (Since) : 03-09-2021, End date (Until) : 06-09-2021
+Amount the day : 2.375, Status : "Waiting for approve"</t>
+    </r>
+  </si>
+  <si>
+    <t>Type of leave : ลาอื่น ๆ
+Duration : 03-09-2021 to 06-09-2021
+Amount : 2
+Hours : 3
+half day leave : Afternoon
+Description : TC-LEAVE-EMP-020
+Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>พนักงานแก้ไขประเภทการลาครึ่งวันสำเร็จ สถานะรออนุมัติ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก
+   1.4 ระบบจะแสดงหน้าจอข้อมูลการลาทั้งหมด (LEAVE007) 
+   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
+Leave ID : 3732, Submit Date : 26-08-2021 00:33
+The applicant : "test_it_role", Type of leave : "ลาอื่นๆ"
+Start date (Since) : 03-09-2021, End date (Until) : 06-09-2021
+Amount the day : 2.625, Status : "Waiting for approve"
+   1.6 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก และhalf of day leave ของการลาเปลี่ยนแปลงเป็น "Afternoon"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>พนักงานแก้ไขประเภทการลาครึ่งวันสำเร็จ สถานะรออนุมัติ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก
+   1.4 ระบบจะแสดงหน้าจอข้อมูลการลาทั้งหมด (LEAVE007) 
+   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
+Leave ID : 3732, Submit Date : 26-08-2021 00:33
+The applicant : "test_it_role", Type of leave : "ลาอื่น ๆ"
+Start date (Since) : 03-09-2021, End date (Until) : 03-09-2021
+Amount the day : 2.625, Status : "Waiting for approve"
+   1.6 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก และhalf of day leave ของการลาเปลี่ยนแปลงเป็น "Afternoon"</t>
+    </r>
+  </si>
+  <si>
+    <t>ผู้ใช้มีสัญญาณอินเตอร์เน็ต และต้องผ่านการทดสอบ
+ในเทสต์เคส TC-LEAVE-EMP-020</t>
+  </si>
+  <si>
+    <t>Function Name : การทดสอบฟังก์ชันการลา (Leave Form)</t>
+  </si>
+  <si>
+    <t>Function ID : UAT-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผู้ใช้ต้องมีสัญญาณอินเตอร์เน็ต </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานแก้ไขคำร้องการลาโดยการย้ายปุ่มไม่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 กดปุ่ม My Leave
+   1.2 กดปุ่ม Add leave
+   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
+   1.4 กดปุ่ม Submit
+    1.5 กดปุ่ม Calendar
+    1.6 กดปุ่ม Check All Calendar
+    1.7 กดปุ่มถัดไป 
+    1.8 และเลือกลากิจ/ลาพักร้อน ในวันที่ 7 กันยายน 2021 ย้ายไปที่ 8 กันยายน 2021
+    1.9 กดปุ่ม My Leave และตรวจสอบข้อมูลของ Leave ID 3724</t>
+    </r>
+  </si>
+  <si>
+    <t>Type of leave : ลากิจ/ลาพักร้อน
+Duration : 06-09-2021 to 06-09-2021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. พนักงานแก้ไขคำร้องการลาโดยการย้ายปุ่มสำเร็จ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   1.1 กดปุ่ม My Leave
+   1.2 กดปุ่ม Add leave
+   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
+   1.4 กดปุ่ม Submit
+    1.5 กดปุ่ม Calendar
+    1.6 กดปุ่ม Check All Calendar
+    1.7 กดปุ่มถัดไป 
+    1.8 และเลือกลากิจ/ลาพักร้อน ในวันที่ 6 กันยายน 2021 ย้ายไปที่ 7 กันยายน 2021
+    1.9 กดปุ่ม My Leave และตรวจสอบข้อมูลของ Leave ID 3724</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. พนักงานแก้ไขคำร้องการลาโดยการย้ายปุ่มไม่สำเร็จ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก
+   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
+    1.5 แสดงปุ่มย่อยให้เลือก (drop down)
+    1.6 ระบบแสดงหน้าจอ (LEAVE008) เพื่อแสดงข้อมูลทั้งหมดของผู้ใช้ 
+    1.7 ตัวเลือกลากิจ/ลาพักร้อน ในวันที่ 7 กันยายน 2021 ไม่สามารถย้ายไปที่ 8 กันยายน 2021 ได้</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. พนักงานแก้ไขคำร้องการลาโดยการย้ายปุ่มสำเร็จ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก
+   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
+    1.1 แสดงปุ่มย่อยให้เลือก (drop down)
+    1.2 ระบบแสดงหน้าจอ (LEAVE008) เพื่อแสดงข้อมูลทั้งหมดของผู้ใช้ 
+    1.3 ตัวเลือกลากิจ/ลาพักร้อน ในวันที่ 7 กันยายน 2021 ไม่สามารถย้ายไปที่ 8 กันยายน 2021 ได้</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. พนักงานแก้ไขคำร้องการลาโดยการย้ายปุ่มสำเร็จ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
+เป็นข้อมูลที่ผู้ใช้เลือก
+   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
+    1.5 แสดงปุ่มย่อยให้เลือก (drop down)
+    1.6 ระบบแสดงหน้าจอ (LEAVE008) เพื่อแสดงข้อมูลทั้งหมดของผู้ใช้ 
+    1.7 ระบบแสดงปฏิทินในเดือนกันยายน
+    1.8ตัวเลือกลากิจ/ลาพักร้อน ในวันที่ 7 กันยายน 2021 ย้ายไปที่ 8 กันยายน 2021 ได้
+    1.9 ระบบแสดงหน้าจอสำหรับข้อมูลการลา (LEAVE003) และข้อมูลมีการเปี่ยนแปลงดังนี้
+Leave ID : 3724, Submit Date : 25-08-2021 11:14
+The applicant : "test_it_role", Type of leave : "ลากิจ/ลาพักร้อน"
+Start date (Since) : 06-09-2021, End date (Until) : 07-09-2021
+Amount the day : 1.000, Status : "Waiting for approve"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. พนักงานแก้ไขคำร้องการลาโดยการย้ายปุ่มไม่สำเร็จ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก
+   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
+    1.1 แสดงปุ่มย่อยให้เลือก (drop down)
+    1.2 ระบบแสดงหน้าจอ (LEAVE008) เพื่อแสดงข้อมูลทั้งหมดของผู้ใช้ 
+    1.3 ตัวเลือกลากิจ/ลาพักร้อน ในวันที่ 7 กันยายน 2021 ไม่สามารถย้ายไปที่ 8 กันยายน 2021 ได้</t>
     </r>
   </si>
 </sst>
@@ -5356,7 +5424,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5405,6 +5473,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -5446,7 +5520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5522,10 +5596,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -7304,9 +7379,9 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -7324,14 +7399,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="31"/>
+      <c r="A1" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="33"/>
       <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
@@ -7342,10 +7417,10 @@
         <v>11</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="15"/>
@@ -7379,10 +7454,10 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.6">
@@ -7497,10 +7572,10 @@
         <v>43</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>18</v>
@@ -7528,19 +7603,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
@@ -7563,10 +7638,10 @@
         <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="8"/>
@@ -7586,16 +7661,16 @@
         <v>138</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="8"/>
@@ -7615,16 +7690,16 @@
         <v>138</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="8"/>
@@ -7641,19 +7716,19 @@
         <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="8"/>
@@ -7673,16 +7748,16 @@
         <v>138</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="8"/>
@@ -7702,16 +7777,16 @@
         <v>138</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="8"/>
@@ -7731,23 +7806,23 @@
         <v>138</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.3">
@@ -7764,23 +7839,23 @@
         <v>138</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
@@ -7797,23 +7872,23 @@
         <v>138</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
@@ -7830,21 +7905,21 @@
         <v>138</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
@@ -7861,21 +7936,21 @@
         <v>138</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
@@ -7892,21 +7967,21 @@
         <v>138</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
@@ -7923,21 +7998,21 @@
         <v>138</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.3">
@@ -7954,16 +8029,16 @@
         <v>138</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="8"/>
@@ -7974,25 +8049,25 @@
         <v>57</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="8"/>
@@ -8012,16 +8087,16 @@
         <v>138</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="8"/>
@@ -8043,7 +8118,7 @@
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -8056,21 +8131,21 @@
         <v>140</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="12"/>
       <c r="K26" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
@@ -8087,16 +8162,16 @@
         <v>141</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="12"/>
@@ -8116,16 +8191,16 @@
         <v>142</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="12"/>
@@ -8145,16 +8220,16 @@
         <v>143</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="12"/>
@@ -8165,25 +8240,25 @@
         <v>93</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>158</v>
+        <v>375</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>369</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="12"/>
@@ -8203,23 +8278,23 @@
         <v>143</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="10" customFormat="1" ht="189" x14ac:dyDescent="0.3">
@@ -8236,20 +8311,20 @@
         <v>143</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F32" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>212</v>
-      </c>
       <c r="H32" s="13" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I32" s="16"/>
       <c r="K32" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="10" customFormat="1" ht="294" x14ac:dyDescent="0.3">
@@ -8266,23 +8341,23 @@
         <v>144</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.3">
@@ -8299,78 +8374,78 @@
         <v>144</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F34" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="10" customFormat="1" ht="315" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="13" t="s">
         <v>131</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>159</v>
+        <v>378</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>219</v>
+        <v>381</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>223</v>
+        <v>384</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>222</v>
+        <v>383</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="13" t="s">
         <v>132</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>159</v>
+        <v>378</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>221</v>
+        <v>379</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>224</v>
+        <v>382</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="12"/>
@@ -8392,7 +8467,7 @@
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" s="10" customFormat="1" ht="126" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="31" t="s">
         <v>100</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -8402,26 +8477,26 @@
         <v>125</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" s="10" customFormat="1" ht="147" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="31" t="s">
         <v>101</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -8431,26 +8506,26 @@
         <v>125</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" s="10" customFormat="1" ht="147" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="31" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -8460,26 +8535,26 @@
         <v>125</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="31" t="s">
         <v>103</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -8489,19 +8564,19 @@
         <v>125</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="12"/>
@@ -8523,7 +8598,7 @@
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" s="4" customFormat="1" ht="294" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="31" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -8536,27 +8611,27 @@
         <v>139</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="31" t="s">
         <v>105</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -8569,27 +8644,27 @@
         <v>139</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="31" t="s">
         <v>106</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -8602,27 +8677,27 @@
         <v>139</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="409.6" x14ac:dyDescent="0.6">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="31" t="s">
         <v>107</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -8635,27 +8710,27 @@
         <v>139</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.6">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="31" t="s">
         <v>108</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -8668,27 +8743,27 @@
         <v>139</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I47" s="16"/>
       <c r="J47" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="168" x14ac:dyDescent="0.6">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -8701,27 +8776,27 @@
         <v>139</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="105" x14ac:dyDescent="0.6">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="31" t="s">
         <v>110</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -8734,23 +8809,23 @@
         <v>139</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.6">
@@ -8769,7 +8844,7 @@
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="273" x14ac:dyDescent="0.6">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="31" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -8779,30 +8854,30 @@
         <v>137</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I51" s="24"/>
       <c r="J51" s="8" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="273" x14ac:dyDescent="0.6">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="31" t="s">
         <v>112</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -8812,19 +8887,19 @@
         <v>137</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I52" s="25"/>
       <c r="J52" s="11"/>
@@ -8832,7 +8907,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A53" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -8846,186 +8921,186 @@
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="31" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="I54" s="18"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:12" ht="105" x14ac:dyDescent="0.6">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="31" t="s">
         <v>114</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
     <row r="56" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="31" t="s">
         <v>115</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I56" s="16"/>
       <c r="J56" s="8" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="31" t="s">
         <v>116</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>179</v>
-      </c>
       <c r="E57" s="14" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G57" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="H57" s="20" t="s">
         <v>300</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>307</v>
       </c>
       <c r="I57" s="16"/>
       <c r="J57" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="31" t="s">
         <v>117</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G58" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="H58" s="20" t="s">
         <v>301</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>308</v>
       </c>
       <c r="I58" s="16"/>
       <c r="J58" s="8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="84" x14ac:dyDescent="0.6">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="31" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="8"/>
@@ -9033,7 +9108,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -9047,42 +9122,42 @@
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="31" t="s">
         <v>121</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="8" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A62" s="6" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -9101,13 +9176,13 @@
         <v>126</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E63" s="26"/>
       <c r="F63" s="26"/>
@@ -9269,14 +9344,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
@@ -9287,10 +9362,10 @@
         <v>11</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="15"/>
@@ -9324,10 +9399,10 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.6">
@@ -9359,7 +9434,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>20</v>
@@ -9390,7 +9465,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>
@@ -9442,10 +9517,10 @@
         <v>43</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>18</v>

--- a/UAT-Testcase-LeaveForm.xlsx
+++ b/UAT-Testcase-LeaveForm.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\CubeSoftTech_WorkingSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A003CDB-F1E7-409C-A801-2A2776F0E499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB1B0E6-8FC0-4B04-811D-51D7AA4F1938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CCCF8952-E977-4E69-B266-ED8C89073CA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CCCF8952-E977-4E69-B266-ED8C89073CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Role" sheetId="1" r:id="rId1"/>
-    <sheet name="HR,Admin Role" sheetId="4" r:id="rId2"/>
+    <sheet name="HR Role" sheetId="4" r:id="rId2"/>
+    <sheet name="Admin Role" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="507">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2769,29 +2769,6 @@
 Leave ID : 3723, Submit date : 25-08-2021 10:30, The applicant : test_it_role
 Type of leave : ลาอื่นๆ , Start date (Since) : 19-08-2021 , End date (Until) : 20-08-2021
 Amount the day : 2.000, Status : Waiting for approve</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานติดตามสถานะคำร้องการลาสำเร็จ สถานะคำร้องถูกลบ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-    1.1  กดปุ่ม My Leave
-    1.2 ตรวจสอบคำร้องการลา Leave ID : 3730</t>
     </r>
   </si>
   <si>
@@ -3444,14 +3421,6 @@
 ไม่ระบุการลาครึ่งวัน พนักงานสามารถยื่นคำร้องการลาได้</t>
   </si>
   <si>
-    <t>Type of leave : ลาอื่น ๆ
-Duration : 30-08-2021 to 30-08-2021
-Amount : 1
-Hours : 0
-half day leave : -
-Reason : เป็นส่วนหนึ่งในการทดสอบ</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3579,20 +3548,74 @@
     <t>DEF-009</t>
   </si>
   <si>
-    <t>DEF-010</t>
-  </si>
-  <si>
-    <t>DEF-011</t>
-  </si>
-  <si>
-    <t>เมื่อผู้ใช้ยื่นคำร้องการลา ผู้ใช้สามารถระบุ/ไม่ระบุคำอธิบาย (Description) หรือไม่ก็ได้</t>
-  </si>
-  <si>
-    <t>เมื่อผู้ใช้ยื่นคำร้องการลา ผู้ใช้สามารถระบุ/ไม่ระบุเหตุผล (Reason) หรือไม่ก็ได้</t>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานลืมระบุ Description</t>
+    <t>พนักงานไม่ระบุทุกอย่างในการยื่นคำร้องการลา</t>
+  </si>
+  <si>
+    <t>เป็นส่วนหนึงในระบบการลา หากไม่ระบุ
+Type of day leave, Duration, half day leave, Description, Reason
+พนักงานสามารถยื่นคำร้องการลาได้</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานไม่ระบุทุกอย่างในการยื่นคำร้องการลา</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 กดปุ่ม My Leave
+   1.2 กดปุ่ม Add leave
+   1.3 กดปุ่ม Submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานไม่ระบุทุกอย่างในการยื่นคำร้องการลา</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.3 ระบบจะแสดง pop-up ข้อความแจ้งเตือน "โปรดเลือกหนึ่งในตัวเลือกเหล่านี้"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานลืมระบุ half day leave</t>
     </r>
     <r>
       <rPr>
@@ -3624,223 +3647,7 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1.4 ระบบจะแสดง pop-up ข้อความแจ้งเตือน "โปรดระบุคำอธิบาย"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานลืมระบุ Reason</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.4 ระบบจะแสดง pop-up ข้อความแจ้งเตือน "โปรดระบุเหตุผล"</t>
-    </r>
-  </si>
-  <si>
-    <t>พนักงานไม่ระบุทุกอย่างในการยื่นคำร้องการลา</t>
-  </si>
-  <si>
-    <t>เป็นส่วนหนึงในระบบการลา หากไม่ระบุ
-Type of day leave, Duration, half day leave, Description, Reason
-พนักงานสามารถยื่นคำร้องการลาได้</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานไม่ระบุทุกอย่างในการยื่นคำร้องการลา</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานไม่ระบุทุกอย่างในการยื่นคำร้องการลา</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.3 ระบบจะแสดง pop-up ข้อความแจ้งเตือน "โปรดเลือกหนึ่งในตัวเลือกเหล่านี้"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานลืมระบุ half day leave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
       <t>1.4 ระบบไม่มีข้อความแจ้งเตือน "โปรดเลือกหนึ่งในตัวเลือกเหล่านี้"
-และยื่นคำร้องการลาได้ ซึ่งระบบแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานลืมระบุ Description</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.4 ระบบไม่มีข้อความแจ้งเตือน "โปรดระบุคำอธิบาย"
-และยื่นคำร้องการลาได้ ซึ่งระบบแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานลืมระบุ Reason</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.4 ระบบไม่มีข้อความแจ้งเตือน "โปรดระบุเหตุผล"
 และยื่นคำร้องการลาได้ ซึ่งระบบแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021</t>
     </r>
   </si>
@@ -4836,43 +4643,6 @@
   <si>
     <t>Type of leave : ลาโดยไม่รับค่าจ้าง
 Description : , TC-LEAVE-EMP-029</t>
-  </si>
-  <si>
-    <t>Duration : 30-08-2021 to 30-08-2021
-Amount : 1
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-045
-Reason : เป็นส่วนหนึ่งในการทดสอบการแจ้งเตือน</t>
-  </si>
-  <si>
-    <t>Type of leave : ลาอื่น ๆ
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-046
-Reason : เป็นส่วนหนึ่งในการทดสอบการแจ้งเตือน</t>
-  </si>
-  <si>
-    <t>Type of leave : ลาโดยไม่รับค่าจ้าง
-Duration : 30-08-2021 to 30-08-2021
-Amount : 1
-Hours : 3
-Description : TC-LEAVE-EMP-047
-Reason : เป็นส่วนหนึ่งในการทดสอบการแจ้งเตือน</t>
-  </si>
-  <si>
-    <t>Type of leave : ลาป่วย
-Duration : 30-08-2021 to 30-08-2021
-Amount : 1
-Hours : 0
-half day leave : -
-Description : TC-LEAVE-EMP-048</t>
-  </si>
-  <si>
-    <t>ผู้ใช้ต้องมีสัญญาณอินเตอร์เน็ต
-พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
-และเคยยื่นคำร้องการลาในระบบ
-Test Case ID : TC-LEAVE-EMP-012</t>
   </si>
   <si>
     <t>Type of leave : ลากิจ/ลาพักร้อน
@@ -5355,12 +5125,656 @@
     1.3 ตัวเลือกลากิจ/ลาพักร้อน ในวันที่ 7 กันยายน 2021 ไม่สามารถย้ายไปที่ 8 กันยายน 2021 ได้</t>
     </r>
   </si>
+  <si>
+    <t>ผู้ใช้ต้องมีสัญญาณอินเตอร์เน็ต
+พนักงานต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลา
+และเคยยื่นคำร้องการลาในระบบ
+Test Case ID : TC-LEAVE-EMP-009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานติดตามสถานะคำร้องการลาสำเร็จ สถานะคำร้องถูกลบ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1  กดปุ่ม My Leave
+    1.2 ตรวจสอบคำร้องการลา Leave ID : 3727</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานลืมระบุ Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.4 ระบบยื่นคำร้องการลาได้ ซึ่งระบบแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานลืมระบุ Reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.4 ระบบยื่นคำร้องการลาได้ ซึ่งระบบแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-003</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-002</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-001</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-004</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-005</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-006</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-007</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-008</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-009</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-010</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-011</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-012</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-013</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-014</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-015</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-016</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-017</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-018</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-019</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-020</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-021</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-022</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-023</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-024</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-025</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-026</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-027</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-028</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-029</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-030</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-031</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-032</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานเข้าสู่ระบบสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าจอสำหรับหน้าเข้าสู่ระบบ (LEAVE001)
+ภายในหน้าจอแสดงข้อความ "Login to your account"
+และแท็บบาร์แสดงข้อความ "Cube SoftTech : Login"
+   1.2 ระบบแสดงหน้าแรกของเว็บไซต์ (LEAVE002)
+ภายในหน้าจอ มุมขวาแสดงข้อความชื่อผู้ใช้ "test_hr_role"
+และแท็บบาร์แสดงข้อความ "check in"</t>
+    </r>
+  </si>
+  <si>
+    <t>ค้นหาคำร้องการลา Leave Approve</t>
+  </si>
+  <si>
+    <t>เพิ่มคำร้องการลา My Leave</t>
+  </si>
+  <si>
+    <t>HR เลือก Applicant ในการยื่นคำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR เลือก Approvers ในการยื่นคำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR เลือก Status ในการยื่นคำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR ค้นหา พนักงาน ในการยื่นคำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR ค้นหา ประเภทของสถานะการลา ในการยื่นคำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR ค้นหา โดยระบุ วันที่ ในการยื่นคำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR ค้นหา โดยระบุ เดือน ในการยื่นคำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR ค้นหา โดยระบุ ปี ในการยื่นคำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>อนุมัติคำร้องการลา Leave Approve</t>
+  </si>
+  <si>
+    <t>HR อนุมัติ คำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR ไม่อนุมัติ คำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR ลบ คำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>อื่น ๆ Leave Approve</t>
+  </si>
+  <si>
+    <t>HR ดูข้อมูล คำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR แก้ไขข้อมูล คำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR ดาวน์โหลดข้อมูล คำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-033</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-034</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-035</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-036</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-037</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-038</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-039</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-040</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-041</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-042</t>
+  </si>
+  <si>
+    <t>ค้นหาคำร้องการลา Leave List</t>
+  </si>
+  <si>
+    <t>HR ค้นหา ประเภทของการลา ในการยื่นคำร้องการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>TC-LEAVE-HR-043</t>
+  </si>
+  <si>
+    <t>HR ลบ คำร้องการลาไม่สำเร็จ</t>
+  </si>
+  <si>
+    <t>HR ย้ายข้อมูลการลาสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR ย้ายข้อมูลการลาไม่สำเร็จ</t>
+  </si>
+  <si>
+    <t>อื่น ๆ Leave List</t>
+  </si>
+  <si>
+    <t>อนุมัติ Leave List</t>
+  </si>
+  <si>
+    <t>Leave Calendar</t>
+  </si>
+  <si>
+    <t>Duration :08-09-2021 to 08-09-2021
+Amount : 1
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-045</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาอื่น ๆ
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-046</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาโดยไม่รับค่าจ้าง
+Duration : 08-09-2021 to 08-09-2021
+Amount : 1
+Hours : 3
+Description : TC-LEAVE-047
+Reason : เป็นส่วนหนึ่งในการทดสอบการแจ้งเตือน</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาอื่น ๆ
+Duration : 08-09-2021 to 08-09-2021
+Amount : 1
+Reason : เป็นส่วนหนึ่งในการทดสอบการแจ้งเตือน</t>
+  </si>
+  <si>
+    <t>Type of leave : ลาป่วย
+Duration : 08-09-2021 to 08-09-2021
+Amount : 1
+Hours : 0
+half day leave : -
+Description : TC-LEAVE-049</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการลา สามารถเลือก Approvers ได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการลา สามารถเลือก Status ได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการลา สามารถเลือก Applicant ได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา
+สามารถค้นหาประเภทของสถานะการลาได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา
+สามารถค้นหาโดยระบุวันที่ได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา
+สามารถค้นหาโดยระบุเดือนได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา
+สามารถค้นหาโดยระบุปีได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา สามารถอนุมัติได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา สามารถไม่อนุมัติได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา สามารถลบได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา
+สามารถค้นหาประเภทการลาได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา
+สามารถค้นหาโดยระบุวันที่ได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา
+สามารถค้นหาโดยระบุเดือนได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา
+สามารถค้นหาโดยระบุปีได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา สามารถอนุมัติคำลาได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา สามารถไม่อนุมัติคำลาได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา สามารถลบคำลาได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา
+สามารถค้นหาชื่อตนเองได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา
+สามารถค้นหาชื่อพนักงานคนอื่นได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา
+สามารถดาวน์โหลดข้อมูลการลาของผู้อื่นได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา
+สามารถดาวน์โหลดข้อมูลการลาของตนเองได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา
+สามารถแก้ไขการลาของผู้อื่นได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา
+สามารถดูข้อมูลการลาของตนเองได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา
+สามารถดูข้อมูลการลาของผู้อื่นได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการดูรายการการลา
+สามารถแก้ไขการลาของตนเองได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนหนึ่งในหน้าปฏิทินการลา
+ไม่สามารถลบคำร้องการลาได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนหนึ่งในหน้าปฏิทินการลา
+ไม่สามารถย้ายคำร้องการลาได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา
+สามารถดูข้อมูลการลาของตนเองได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการล
+สามารถดูข้อมูลการลาของคนอื่นได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา
+สามารถแก้ไขข้อมูลการลาของตนเองได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา
+สามารถแก้ไขข้อมูลการลาของคนอื่นได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา
+สามารถดาวน์โหลดข้อมูลการลาของตนเองได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา
+สามารถดาวน์โหลดข้อมูลการลาของคนอื่นได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา
+สามารถค้นหารายชื่อตนเองได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนในการอนุมัติการลา
+สามารถค้นหารายชื่อพนักงานคนอื่นได้</t>
+  </si>
+  <si>
+    <t>DEF-011</t>
+  </si>
+  <si>
+    <t>Status : Approved</t>
+  </si>
+  <si>
+    <t>Staff : HR Role Testing</t>
+  </si>
+  <si>
+    <t>Staff : IT Role Testing</t>
+  </si>
+  <si>
+    <t>Type : All</t>
+  </si>
+  <si>
+    <t>Type : Waiting For Approve</t>
+  </si>
+  <si>
+    <t>Type : Approve</t>
+  </si>
+  <si>
+    <t>Date : 02-08-2021 to 03-08-2021</t>
+  </si>
+  <si>
+    <t>Date : 01-08-2021 to 31-08-2021</t>
+  </si>
+  <si>
+    <t>Date : 01-01-2021 to 31-12-2021</t>
+  </si>
+  <si>
+    <t>Status : Reject</t>
+  </si>
+  <si>
+    <t>button : Delete</t>
+  </si>
+  <si>
+    <t>Type of day leave : ลาอื่นๆ</t>
+  </si>
+  <si>
+    <t>Type of day leave : ลาป่วย</t>
+  </si>
+  <si>
+    <t>Type : ลาป่วย</t>
+  </si>
+  <si>
+    <t>Type : ขาดงาน</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. HR เลือก Applicant ในการยื่นคำร้องการลาสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 กดปุ่ม My Leave
+    1.2 กดปุ่ม add leave
+    1.3 เลือกข้อมูลตามใน input data
+    1.4 กดปุ่ม Submit
+    1.5 กดปุ่ม My Leave</t>
+    </r>
+  </si>
+  <si>
+    <t>Applicant : HR Role Testing
+Duration : 02-08-2021 to 02-08-2021
+Description : TC-LEAVE-HR-003</t>
+  </si>
+  <si>
+    <t>Approvers : HR Role Testing
+Duration : 02-08-2021 to 02-08-2021
+Description : TC-LEAVE-HR-004</t>
+  </si>
+  <si>
+    <t>Status : Approved
+Duration : 02-08-2021 to 02-08-2021
+Description : TC-LEAVE-HR-005</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. HR เลือก Status ในการยื่นคำร้องการลาสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 กดปุ่ม My Leave
+    1.2 กดปุ่ม add leave
+    1.3 เลือกข้อมูลตามใน input data
+    1.4 กดปุ่ม Submit
+    1.5 กดปุ่ม My Leave</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. HR เลือก Approvers ในการยื่นคำร้องการลาสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 กดปุ่ม My Leave
+    1.2 กดปุ่ม add leave
+    1.3 เลือกข้อมูลตามใน input data
+    1.4 กดปุ่ม Submit
+    1.5 กดปุ่ม My Leave</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5423,6 +5837,12 @@
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -5469,13 +5889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5520,7 +5940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5583,24 +6003,49 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -7077,6 +7522,249 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>394335</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>663575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5783378" cy="1687963"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="กล่องข้อความ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F43666-49AF-46B0-BC47-0203B5800EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36330255" y="5464175"/>
+          <a:ext cx="5783378" cy="1687963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>รหัสหน้าจอ - ชื่อหน้าจอทดสอบ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LEAVE001 - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>แสดงหน้าเข้าสู่ระบบ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>    2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LEAVE002 - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>แสดงหน้าแรกของเว็บไซต์</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>    3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LEAVE003 - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>แสดงหน้าประเภทการลา และหน้าข้อมูลในการลาทั้งหมด รวมถึงจำนวนวันที่เหลือ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>    4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LEAVE004 - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>แสดงหน้ากรอกข้อมูลที่ใช้ในการลา ชื่อ วันที่ จำนวนวัน คำอธิบาย</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>    5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LEAVE005 - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>แสดงปฏิทินข้อมูลการลา</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>    6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LEAVE006 - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>แสดงหน้าจอ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>pop up </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>แสดงข้อความแจ้งเตือนเกินจำนวนโควตาการลา</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>      7. LEAVE007 - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>แสดงหน้าจอ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Leave application list </a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>  8. LEAVE008 - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH"/>
+            <a:t>แสดงหน้าจอปฏิทินข้อมูลทั้งหมดของเดือนปัจจุบัน</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
@@ -7375,13 +8063,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76DFBCA-1BEF-4ABD-9A45-378F1410843D}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -7399,14 +8087,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="33"/>
+      <c r="A1" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="27"/>
       <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
@@ -7572,10 +8260,10 @@
         <v>43</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>18</v>
@@ -7603,7 +8291,7 @@
         <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>242</v>
@@ -7638,10 +8326,10 @@
         <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="8"/>
@@ -7667,10 +8355,10 @@
         <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="8"/>
@@ -7690,16 +8378,16 @@
         <v>138</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="8"/>
@@ -7716,19 +8404,19 @@
         <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>194</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="8"/>
@@ -7754,10 +8442,10 @@
         <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="8"/>
@@ -7777,16 +8465,16 @@
         <v>138</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="8"/>
@@ -7806,13 +8494,13 @@
         <v>138</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>241</v>
@@ -7839,16 +8527,16 @@
         <v>138</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="8" t="s">
@@ -7872,7 +8560,7 @@
         <v>138</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>162</v>
@@ -7905,7 +8593,7 @@
         <v>138</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>163</v>
@@ -7936,7 +8624,7 @@
         <v>138</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>165</v>
@@ -7967,13 +8655,13 @@
         <v>138</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>164</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>190</v>
@@ -7998,7 +8686,7 @@
         <v>138</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>206</v>
@@ -8029,16 +8717,16 @@
         <v>138</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="8"/>
@@ -8049,25 +8737,25 @@
         <v>57</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="8"/>
@@ -8087,16 +8775,16 @@
         <v>138</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="8"/>
@@ -8137,10 +8825,10 @@
         <v>202</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="12"/>
@@ -8168,10 +8856,10 @@
         <v>203</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="12"/>
@@ -8181,7 +8869,7 @@
       <c r="A28" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="26" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -8197,10 +8885,10 @@
         <v>204</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="12"/>
@@ -8210,7 +8898,7 @@
       <c r="A29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -8239,26 +8927,26 @@
       <c r="A30" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>368</v>
+      <c r="B30" s="26" t="s">
+        <v>353</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="12"/>
@@ -8278,7 +8966,7 @@
         <v>143</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>209</v>
@@ -8311,7 +8999,7 @@
         <v>143</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>208</v>
@@ -8341,16 +9029,16 @@
         <v>144</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>212</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="12" t="s">
@@ -8374,7 +9062,7 @@
         <v>144</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>214</v>
@@ -8400,19 +9088,19 @@
         <v>133</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="12" t="s">
@@ -8433,19 +9121,19 @@
         <v>133</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="12"/>
@@ -8467,7 +9155,7 @@
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" s="10" customFormat="1" ht="126" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -8496,7 +9184,7 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" s="10" customFormat="1" ht="147" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -8525,7 +9213,7 @@
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" s="10" customFormat="1" ht="147" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -8554,7 +9242,7 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -8564,19 +9252,19 @@
         <v>125</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>157</v>
       </c>
       <c r="F41" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>252</v>
-      </c>
       <c r="H41" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="12"/>
@@ -8598,7 +9286,7 @@
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" s="4" customFormat="1" ht="294" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -8617,21 +9305,21 @@
         <v>231</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -8650,21 +9338,21 @@
         <v>231</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -8683,21 +9371,21 @@
         <v>232</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="409.6" x14ac:dyDescent="0.6">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -8716,21 +9404,21 @@
         <v>233</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.6">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -8749,21 +9437,21 @@
         <v>234</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I47" s="16"/>
       <c r="J47" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="168" x14ac:dyDescent="0.6">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="12" t="s">
         <v>109</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -8776,27 +9464,27 @@
         <v>139</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>235</v>
       </c>
       <c r="G48" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="105" x14ac:dyDescent="0.6">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -8809,23 +9497,23 @@
         <v>139</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>236</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.6">
@@ -8844,7 +9532,7 @@
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="273" x14ac:dyDescent="0.6">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -8854,30 +9542,30 @@
         <v>137</v>
       </c>
       <c r="D51" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="F51" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="G51" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G51" s="23" t="s">
-        <v>270</v>
-      </c>
       <c r="H51" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I51" s="24"/>
       <c r="J51" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="273" x14ac:dyDescent="0.6">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -8887,19 +9575,19 @@
         <v>137</v>
       </c>
       <c r="D52" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="E52" s="23" t="s">
-        <v>268</v>
-      </c>
       <c r="F52" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G52" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="G52" s="23" t="s">
-        <v>272</v>
-      </c>
       <c r="H52" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I52" s="25"/>
       <c r="J52" s="11"/>
@@ -8920,8 +9608,8 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A54" s="31" t="s">
+    <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.6">
+      <c r="A54" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -8934,23 +9622,23 @@
         <v>177</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>355</v>
+        <v>445</v>
       </c>
       <c r="F54" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="G54" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="G54" s="20" t="s">
-        <v>274</v>
-      </c>
       <c r="H54" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I54" s="18"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:12" ht="105" x14ac:dyDescent="0.6">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -8963,56 +9651,56 @@
         <v>177</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>356</v>
+        <v>446</v>
       </c>
       <c r="F55" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G55" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="G55" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="H55" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
     <row r="56" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="12" t="s">
         <v>115</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>170</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>177</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>357</v>
+        <v>447</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="I56" s="16"/>
       <c r="J56" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="12" t="s">
         <v>116</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -9025,27 +9713,23 @@
         <v>177</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>278</v>
+        <v>448</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>291</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="I57" s="18"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="7"/>
     </row>
     <row r="58" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B58" s="12" t="s">
@@ -9058,34 +9742,30 @@
         <v>177</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>358</v>
+        <v>449</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="I58" s="16"/>
-      <c r="J58" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>292</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
     </row>
     <row r="59" spans="1:12" ht="84" x14ac:dyDescent="0.6">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="12" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>177</v>
@@ -9094,13 +9774,13 @@
         <v>157</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="8"/>
@@ -9108,7 +9788,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -9122,76 +9802,76 @@
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="8" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A62" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="1:12" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.6">
-      <c r="A63" s="26" t="s">
+    <row r="62" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+    </row>
+    <row r="63" spans="1:12" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.6">
+      <c r="A63" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="28"/>
+      <c r="B63" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A64" s="4"/>
@@ -9320,13 +10000,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97D23A4-44E4-4167-84C9-C181AB330E01}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -9344,14 +10024,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
@@ -9422,7 +10102,7 @@
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>377</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>15</v>
@@ -9434,7 +10114,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>20</v>
@@ -9445,7 +10125,7 @@
       <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="41" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="8"/>
@@ -9453,7 +10133,7 @@
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="147" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>376</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>21</v>
@@ -9465,18 +10145,18 @@
         <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I5" s="41" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="8"/>
@@ -9484,7 +10164,7 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -9497,9 +10177,1257 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A13" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A14" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A15" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A16" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A17" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A18" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A19" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A20" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A21" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A22" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A23" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A24" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A25" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A26" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A27" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A28" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A29" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A30" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A31" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A32" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A33" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A34" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A35" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A36" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A37" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A38" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A39" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A40" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A41" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A42" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A43" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A44" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A45" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A46" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A47" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A48" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A49" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A50" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A51" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A52" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A53" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A54" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B987BD-A163-487C-B668-95C37567195B}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:K50"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" style="2" customWidth="1"/>
+    <col min="6" max="8" width="70.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="70.77734375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="147" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>28</v>
+        <v>375</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>31</v>
@@ -9528,11 +11456,1082 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="231" x14ac:dyDescent="0.6">
+      <c r="A13" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="231" x14ac:dyDescent="0.6">
+      <c r="A14" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="231" x14ac:dyDescent="0.6">
+      <c r="A15" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="231" x14ac:dyDescent="0.6">
+      <c r="A16" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="252" x14ac:dyDescent="0.6">
+      <c r="A17" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="273" x14ac:dyDescent="0.6">
+      <c r="A18" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="273" x14ac:dyDescent="0.6">
+      <c r="A19" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="168" x14ac:dyDescent="0.6">
+      <c r="A20" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="231" x14ac:dyDescent="0.6">
+      <c r="A21" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="168" x14ac:dyDescent="0.6">
+      <c r="A22" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="252" x14ac:dyDescent="0.6">
+      <c r="A23" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="231" x14ac:dyDescent="0.6">
+      <c r="A24" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="231" x14ac:dyDescent="0.6">
+      <c r="A25" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="273" x14ac:dyDescent="0.6">
+      <c r="A27" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="273" x14ac:dyDescent="0.6">
+      <c r="A28" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="273" x14ac:dyDescent="0.6">
+      <c r="A29" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="315" x14ac:dyDescent="0.6">
+      <c r="A30" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="273" x14ac:dyDescent="0.6">
+      <c r="A31" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="336" x14ac:dyDescent="0.6">
+      <c r="A32" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="189" x14ac:dyDescent="0.6">
+      <c r="A33" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="294" x14ac:dyDescent="0.6">
+      <c r="A34" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="210" x14ac:dyDescent="0.6">
+      <c r="A35" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="315" x14ac:dyDescent="0.6">
+      <c r="A36" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="210" x14ac:dyDescent="0.6">
+      <c r="A37" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="126" x14ac:dyDescent="0.6">
+      <c r="A39" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="147" x14ac:dyDescent="0.6">
+      <c r="A40" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="147" x14ac:dyDescent="0.6">
+      <c r="A41" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="84" x14ac:dyDescent="0.6">
+      <c r="A42" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="294" x14ac:dyDescent="0.6">
+      <c r="A44" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="168" x14ac:dyDescent="0.6">
+      <c r="A45" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="105" x14ac:dyDescent="0.6">
+      <c r="A46" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="409.6" x14ac:dyDescent="0.6">
+      <c r="A47" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.6">
+      <c r="A48" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="168" x14ac:dyDescent="0.6">
+      <c r="A49" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="105" x14ac:dyDescent="0.6">
+      <c r="A50" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/UAT-Testcase-LeaveForm.xlsx
+++ b/UAT-Testcase-LeaveForm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\CubeSoftTech_WorkingSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB1B0E6-8FC0-4B04-811D-51D7AA4F1938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102006DE-E2F5-4224-8F98-8E751733F665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CCCF8952-E977-4E69-B266-ED8C89073CA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CCCF8952-E977-4E69-B266-ED8C89073CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Role" sheetId="1" r:id="rId1"/>
@@ -6006,9 +6006,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6046,6 +6043,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -8067,9 +8067,9 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -8087,14 +8087,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
@@ -9835,43 +9835,43 @@
       </c>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="38" t="s">
+    <row r="62" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-    </row>
-    <row r="63" spans="1:12" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.6">
-      <c r="A63" s="38" t="s">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+    </row>
+    <row r="63" spans="1:12" s="33" customFormat="1" ht="42" x14ac:dyDescent="0.6">
+      <c r="A63" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A64" s="4"/>
@@ -10004,8 +10004,8 @@
   </sheetPr>
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -10024,14 +10024,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
@@ -10125,7 +10125,7 @@
       <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="38" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="8"/>
@@ -10156,7 +10156,7 @@
       <c r="H5" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="38" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="8"/>
@@ -10198,7 +10198,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="42"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
@@ -10253,19 +10253,19 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
@@ -10452,19 +10452,19 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A20" s="12" t="s">
@@ -10536,19 +10536,19 @@
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A24" s="12" t="s">
@@ -10689,13 +10689,13 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="B30" s="33"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="34"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -11159,7 +11159,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="40" t="s">
+      <c r="J51" s="37" t="s">
         <v>485</v>
       </c>
       <c r="K51" s="8"/>
@@ -11272,14 +11272,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="15" t="s">
         <v>10</v>
       </c>

--- a/UAT-Testcase-LeaveForm.xlsx
+++ b/UAT-Testcase-LeaveForm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\CubeSoftTech_WorkingSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102006DE-E2F5-4224-8F98-8E751733F665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EDD5AE-FED9-4DDD-8943-82E8CB842C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CCCF8952-E977-4E69-B266-ED8C89073CA7}"/>
   </bookViews>
@@ -1488,21 +1488,6 @@
     <t>การแจ้งเตือน</t>
   </si>
   <si>
-    <t>พนักงานลืมระบุ Type of day leave</t>
-  </si>
-  <si>
-    <t>พนักงานลืมระบุ Duration</t>
-  </si>
-  <si>
-    <t>พนักงานลืมระบุ half day leave</t>
-  </si>
-  <si>
-    <t>พนักงานลืมระบุ Description</t>
-  </si>
-  <si>
-    <t>พนักงานลืมระบุ Reason</t>
-  </si>
-  <si>
     <t>เป็นส่วนหนึงในระบบการลา หากไม่ระบุประเภทการลา
 พนักงานไม่สามารถยื่นคำร้องการลาได้</t>
   </si>
@@ -3297,241 +3282,15 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลืมระบุ Type of day leave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานลืมระบุ Type of day leave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.4 ระบบจะแสดง pop-up ข้อความแจ้งเตือน "โปรดเลือกหนึ่งในตัวเลือกเหล่านี้"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลืมระบุ Duration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานลืมระบุ Duration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.4 ระบบจะแสดง pop-up ข้อความแจ้งเตือน "โปรดกรอกช่องนี้" และแสดง pop-up ปฏิทิน</t>
-    </r>
-  </si>
-  <si>
     <t>เป็นส่วนหนึงในระบบการลา เมื่อระบุชั่วโมงการลาแล้ว
 ไม่ระบุการลาครึ่งวัน พนักงานสามารถยื่นคำร้องการลาได้</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลืมระบุ half day leave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานลืมระบุ half day leave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.4 ระบบจะแสดง pop-up ข้อความแจ้งเตือน "โปรดเลือกหนึ่งในตัวเลือกเหล่านี้"</t>
-    </r>
-  </si>
-  <si>
     <t>DEF-008</t>
   </si>
   <si>
     <t>เมื่อผู้ใช้กรอกข้อมูลจำนวนขั่วโมงในการลาครึ่งวัน (Hours)
 ผู้ใช้สามารถระบุ/ไม่ระบุ ประเภทของการลาครึ่งวันได้</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลืมระบุ Reason</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลืมระบุ Description</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กดปุ่ม My Leave
-   1.2 กดปุ่ม Add leave
-   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.4 กดปุ่ม Submit</t>
-    </r>
   </si>
   <si>
     <t>DEF-006,DEF-007</t>
@@ -3611,44 +3370,6 @@
         <family val="2"/>
       </rPr>
       <t>1.3 ระบบจะแสดง pop-up ข้อความแจ้งเตือน "โปรดเลือกหนึ่งในตัวเลือกเหล่านี้"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานลืมระบุ half day leave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.4 ระบบไม่มีข้อความแจ้งเตือน "โปรดเลือกหนึ่งในตัวเลือกเหล่านี้"
-และยื่นคำร้องการลาได้ ซึ่งระบบแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021</t>
     </r>
   </si>
   <si>
@@ -5155,80 +4876,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>1. พนักงานลืมระบุ Description</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.4 ระบบยื่นคำร้องการลาได้ ซึ่งระบบแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานลืมระบุ Reason</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.4 ระบบยื่นคำร้องการลาได้ ซึ่งระบบแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021</t>
-    </r>
-  </si>
-  <si>
     <t>TC-LEAVE-HR-003</t>
   </si>
   <si>
@@ -5768,6 +5415,99 @@
     1.4 กดปุ่ม Submit
     1.5 กดปุ่ม My Leave</t>
     </r>
+  </si>
+  <si>
+    <t>1. พนักงานไม่ระบุ Type of day leave
+   1.1 กดปุ่ม My Leave
+   1.2 กดปุ่ม Add leave
+   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
+   1.4 กดปุ่ม Submit</t>
+  </si>
+  <si>
+    <t>1. พนักงานไม่ระบุ Type of day leave
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก
+  1.4 ระบบจะแสดง pop-up ข้อความแจ้งเตือน "โปรดเลือกหนึ่งในตัวเลือกเหล่านี้"</t>
+  </si>
+  <si>
+    <t>พนักงานไม่ระบุ Duration</t>
+  </si>
+  <si>
+    <t>1. พนักงานไม่ระบุ Duration
+   1.1 กดปุ่ม My Leave
+   1.2 กดปุ่ม Add leave
+   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
+   1.4 กดปุ่ม Submit</t>
+  </si>
+  <si>
+    <t>1. พนักงานไม่ระบุ Duration
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก
+  1.4 ระบบจะแสดง pop-up ข้อความแจ้งเตือน "โปรดกรอกช่องนี้" และแสดง pop-up ปฏิทิน</t>
+  </si>
+  <si>
+    <t>พนักงานไม่ระบุ half day leave</t>
+  </si>
+  <si>
+    <t>1. พนักงานไม่ระบุ half day leave
+   1.1 กดปุ่ม My Leave
+   1.2 กดปุ่ม Add leave
+   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
+   1.4 กดปุ่ม Submit</t>
+  </si>
+  <si>
+    <t>1. พนักงานไม่ระบุ half day leave
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก
+  1.4 ระบบจะแสดง pop-up ข้อความแจ้งเตือน "โปรดเลือกหนึ่งในตัวเลือกเหล่านี้"</t>
+  </si>
+  <si>
+    <t>1. พนักงานไม่ระบุ half day leave
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก
+  1.4 ระบบไม่มีข้อความแจ้งเตือน "โปรดเลือกหนึ่งในตัวเลือกเหล่านี้"
+และยื่นคำร้องการลาได้ ซึ่งระบบแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021</t>
+  </si>
+  <si>
+    <t>พนักงานไม่ระบุ Description</t>
+  </si>
+  <si>
+    <t>1. พนักงานไม่ระบุ Description
+   1.1 กดปุ่ม My Leave
+   1.2 กดปุ่ม Add leave
+   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
+   1.4 กดปุ่ม Submit</t>
+  </si>
+  <si>
+    <t>1. พนักงานไม่ระบุ Description
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก
+  1.4 ระบบยื่นคำร้องการลาได้ ซึ่งระบบแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021</t>
+  </si>
+  <si>
+    <t>พนักงานไม่ระบุ Reason</t>
+  </si>
+  <si>
+    <t>1. พนักงานไม่ระบุ Reason
+   1.1 กดปุ่ม My Leave
+   1.2 กดปุ่ม Add leave
+   1.3 กรอกข้อมูลตามที่ระบุใน Input Data
+   1.4 กดปุ่ม Submit</t>
+  </si>
+  <si>
+    <t>1. พนักงานไม่ระบุ Reason
+   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
+   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
+   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004) เป็นข้อมูลที่ผู้ใช้เลือก
+  1.4 ระบบยื่นคำร้องการลาได้ ซึ่งระบบแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021</t>
+  </si>
+  <si>
+    <t>พนักงานไม่ระบุ Type of day leave</t>
   </si>
 </sst>
 </file>
@@ -8068,8 +7808,8 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -8088,11 +7828,11 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A1" s="40" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="D1" s="40"/>
       <c r="E1" s="15" t="s">
@@ -8105,10 +7845,10 @@
         <v>11</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="15"/>
@@ -8142,10 +7882,10 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.6">
@@ -8260,10 +8000,10 @@
         <v>43</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>18</v>
@@ -8291,19 +8031,19 @@
         <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
@@ -8326,10 +8066,10 @@
         <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="8"/>
@@ -8349,16 +8089,16 @@
         <v>138</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="8"/>
@@ -8378,16 +8118,16 @@
         <v>138</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="8"/>
@@ -8404,19 +8144,19 @@
         <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="8"/>
@@ -8436,16 +8176,16 @@
         <v>138</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="8"/>
@@ -8465,16 +8205,16 @@
         <v>138</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="8"/>
@@ -8494,23 +8234,23 @@
         <v>138</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.3">
@@ -8527,23 +8267,23 @@
         <v>138</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
@@ -8560,23 +8300,23 @@
         <v>138</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
@@ -8593,21 +8333,21 @@
         <v>138</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>163</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
@@ -8624,21 +8364,21 @@
         <v>138</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
@@ -8655,21 +8395,21 @@
         <v>138</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>164</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
@@ -8686,21 +8426,21 @@
         <v>138</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.3">
@@ -8717,16 +8457,16 @@
         <v>138</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="8"/>
@@ -8737,25 +8477,25 @@
         <v>57</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="8"/>
@@ -8775,16 +8515,16 @@
         <v>138</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="8"/>
@@ -8822,18 +8562,18 @@
         <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="12"/>
       <c r="K26" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
@@ -8853,13 +8593,13 @@
         <v>155</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="12"/>
@@ -8879,16 +8619,16 @@
         <v>142</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="12"/>
@@ -8911,13 +8651,13 @@
         <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="12"/>
@@ -8928,25 +8668,25 @@
         <v>93</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="12"/>
@@ -8966,23 +8706,23 @@
         <v>143</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="10" customFormat="1" ht="189" x14ac:dyDescent="0.3">
@@ -8999,20 +8739,20 @@
         <v>143</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I32" s="16"/>
       <c r="K32" s="12" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="10" customFormat="1" ht="294" x14ac:dyDescent="0.3">
@@ -9029,23 +8769,23 @@
         <v>144</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.3">
@@ -9062,16 +8802,16 @@
         <v>144</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="12"/>
@@ -9088,26 +8828,26 @@
         <v>133</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="12" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.3">
@@ -9121,19 +8861,19 @@
         <v>133</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="12"/>
@@ -9165,19 +8905,19 @@
         <v>125</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>157</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="12"/>
@@ -9194,19 +8934,19 @@
         <v>125</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>157</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="12"/>
@@ -9223,19 +8963,19 @@
         <v>125</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>157</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="12"/>
@@ -9252,19 +8992,19 @@
         <v>125</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>157</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="12"/>
@@ -9299,23 +9039,23 @@
         <v>139</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="8" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
@@ -9332,23 +9072,23 @@
         <v>139</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="8" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
@@ -9365,23 +9105,23 @@
         <v>139</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="409.6" x14ac:dyDescent="0.6">
@@ -9398,23 +9138,23 @@
         <v>139</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="8" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.6">
@@ -9431,23 +9171,23 @@
         <v>139</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I47" s="16"/>
       <c r="J47" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="168" x14ac:dyDescent="0.6">
@@ -9464,23 +9204,23 @@
         <v>139</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="105" x14ac:dyDescent="0.6">
@@ -9497,23 +9237,23 @@
         <v>139</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.6">
@@ -9542,26 +9282,26 @@
         <v>137</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I51" s="24"/>
       <c r="J51" s="8" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="273" x14ac:dyDescent="0.6">
@@ -9575,19 +9315,19 @@
         <v>137</v>
       </c>
       <c r="D52" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G52" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="E52" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>271</v>
-      </c>
       <c r="H52" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I52" s="25"/>
       <c r="J52" s="11"/>
@@ -9613,25 +9353,25 @@
         <v>113</v>
       </c>
       <c r="B54" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="D54" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>272</v>
+        <v>491</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="I54" s="18"/>
       <c r="J54" s="11"/>
@@ -9642,25 +9382,25 @@
         <v>114</v>
       </c>
       <c r="B55" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="D55" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>274</v>
+        <v>494</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>275</v>
+        <v>495</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>275</v>
+        <v>495</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="11"/>
@@ -9671,32 +9411,32 @@
         <v>115</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>170</v>
+        <v>496</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>277</v>
+        <v>497</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>278</v>
+        <v>498</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>291</v>
+        <v>499</v>
       </c>
       <c r="I56" s="16"/>
       <c r="J56" s="8" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="126" x14ac:dyDescent="0.6">
@@ -9704,25 +9444,25 @@
         <v>116</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>171</v>
+        <v>500</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>282</v>
+        <v>501</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>373</v>
+        <v>502</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>373</v>
+        <v>502</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="8"/>
@@ -9733,25 +9473,25 @@
         <v>117</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>177</v>
-      </c>
       <c r="E58" s="14" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>281</v>
+        <v>504</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>374</v>
+        <v>505</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>374</v>
+        <v>505</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="8"/>
@@ -9762,25 +9502,25 @@
         <v>120</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>157</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="8"/>
@@ -9788,7 +9528,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -9806,38 +9546,38 @@
         <v>121</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="8" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A62" s="35" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
@@ -9856,13 +9596,13 @@
         <v>126</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
@@ -10042,10 +9782,10 @@
         <v>11</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="15"/>
@@ -10079,10 +9819,10 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.6">
@@ -10102,7 +9842,7 @@
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>15</v>
@@ -10114,7 +9854,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>20</v>
@@ -10133,7 +9873,7 @@
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="147" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>21</v>
@@ -10145,16 +9885,16 @@
         <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>18</v>
@@ -10164,7 +9904,7 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -10179,22 +9919,22 @@
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -10204,22 +9944,22 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -10229,22 +9969,22 @@
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -10254,7 +9994,7 @@
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -10269,19 +10009,19 @@
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -10292,19 +10032,19 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -10315,19 +10055,19 @@
     </row>
     <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A13" s="12" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="20"/>
@@ -10338,19 +10078,19 @@
     </row>
     <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A14" s="12" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -10361,19 +10101,19 @@
     </row>
     <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A15" s="12" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -10384,19 +10124,19 @@
     </row>
     <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A16" s="12" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -10407,19 +10147,19 @@
     </row>
     <row r="17" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A17" s="12" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -10430,19 +10170,19 @@
     </row>
     <row r="18" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A18" s="12" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -10453,7 +10193,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A19" s="27" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -10468,19 +10208,19 @@
     </row>
     <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A20" s="12" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -10491,19 +10231,19 @@
     </row>
     <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A21" s="12" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="7"/>
@@ -10514,19 +10254,19 @@
     </row>
     <row r="22" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A22" s="12" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -10537,7 +10277,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A23" s="27" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -10552,13 +10292,13 @@
     </row>
     <row r="24" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A24" s="12" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>42</v>
@@ -10575,13 +10315,13 @@
     </row>
     <row r="25" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A25" s="12" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>42</v>
@@ -10598,19 +10338,19 @@
     </row>
     <row r="26" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A26" s="12" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -10621,19 +10361,19 @@
     </row>
     <row r="27" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A27" s="12" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -10644,13 +10384,13 @@
     </row>
     <row r="28" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A28" s="12" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>42</v>
@@ -10667,13 +10407,13 @@
     </row>
     <row r="29" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A29" s="12" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>42</v>
@@ -10690,7 +10430,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A30" s="36" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="6"/>
@@ -10705,19 +10445,19 @@
     </row>
     <row r="31" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A31" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>413</v>
-      </c>
       <c r="C31" s="7" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -10728,19 +10468,19 @@
     </row>
     <row r="32" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A32" s="12" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -10751,19 +10491,19 @@
     </row>
     <row r="33" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A33" s="12" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -10774,19 +10514,19 @@
     </row>
     <row r="34" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A34" s="12" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -10797,19 +10537,19 @@
     </row>
     <row r="35" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A35" s="12" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -10820,19 +10560,19 @@
     </row>
     <row r="36" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A36" s="12" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -10843,19 +10583,19 @@
     </row>
     <row r="37" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A37" s="12" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -10866,19 +10606,19 @@
     </row>
     <row r="38" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A38" s="12" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -10889,7 +10629,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A39" s="6" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -10904,19 +10644,19 @@
     </row>
     <row r="40" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A40" s="12" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -10927,19 +10667,19 @@
     </row>
     <row r="41" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A41" s="12" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -10950,19 +10690,19 @@
     </row>
     <row r="42" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A42" s="12" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -10973,7 +10713,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A43" s="6" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -10988,13 +10728,13 @@
     </row>
     <row r="44" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A44" s="12" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>42</v>
@@ -11011,13 +10751,13 @@
     </row>
     <row r="45" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A45" s="12" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>42</v>
@@ -11034,19 +10774,19 @@
     </row>
     <row r="46" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A46" s="12" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -11057,19 +10797,19 @@
     </row>
     <row r="47" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A47" s="12" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -11080,13 +10820,13 @@
     </row>
     <row r="48" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A48" s="12" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>42</v>
@@ -11103,13 +10843,13 @@
     </row>
     <row r="49" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A49" s="12" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>42</v>
@@ -11126,7 +10866,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A50" s="6" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -11141,13 +10881,13 @@
     </row>
     <row r="51" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A51" s="12" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>42</v>
@@ -11160,19 +10900,19 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="37" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A52" s="12" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>42</v>
@@ -11189,13 +10929,13 @@
     </row>
     <row r="53" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A53" s="12" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>42</v>
@@ -11212,13 +10952,13 @@
     </row>
     <row r="54" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A54" s="12" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>42</v>
@@ -11290,10 +11030,10 @@
         <v>11</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="15"/>
@@ -11327,10 +11067,10 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.6">
@@ -11350,7 +11090,7 @@
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>15</v>
@@ -11362,7 +11102,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>20</v>
@@ -11381,7 +11121,7 @@
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="147" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>21</v>
@@ -11393,7 +11133,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>
@@ -11427,7 +11167,7 @@
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>31</v>
@@ -11445,10 +11185,10 @@
         <v>43</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>18</v>
@@ -11458,7 +11198,7 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>31</v>
@@ -11476,15 +11216,15 @@
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>33</v>
@@ -11502,15 +11242,15 @@
         <v>91</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>29</v>
@@ -11528,15 +11268,15 @@
         <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>30</v>
@@ -11548,21 +11288,21 @@
         <v>138</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>32</v>
@@ -11574,21 +11314,21 @@
         <v>138</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>147</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="231" x14ac:dyDescent="0.6">
       <c r="A13" s="12" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>59</v>
@@ -11597,24 +11337,24 @@
         <v>34</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="231" x14ac:dyDescent="0.6">
       <c r="A14" s="12" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>39</v>
@@ -11626,21 +11366,21 @@
         <v>138</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="231" x14ac:dyDescent="0.6">
       <c r="A15" s="12" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>61</v>
@@ -11652,21 +11392,21 @@
         <v>138</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="231" x14ac:dyDescent="0.6">
       <c r="A16" s="12" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>62</v>
@@ -11678,21 +11418,21 @@
         <v>138</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="252" x14ac:dyDescent="0.6">
       <c r="A17" s="12" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>63</v>
@@ -11704,21 +11444,21 @@
         <v>138</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="273" x14ac:dyDescent="0.6">
       <c r="A18" s="12" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>64</v>
@@ -11730,21 +11470,21 @@
         <v>138</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="273" x14ac:dyDescent="0.6">
       <c r="A19" s="12" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>67</v>
@@ -11756,21 +11496,21 @@
         <v>138</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="168" x14ac:dyDescent="0.6">
       <c r="A20" s="12" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>68</v>
@@ -11782,21 +11522,21 @@
         <v>138</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>165</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="231" x14ac:dyDescent="0.6">
       <c r="A21" s="12" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>69</v>
@@ -11808,21 +11548,21 @@
         <v>138</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>164</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="168" x14ac:dyDescent="0.6">
       <c r="A22" s="12" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>70</v>
@@ -11834,21 +11574,21 @@
         <v>138</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="252" x14ac:dyDescent="0.6">
       <c r="A23" s="12" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>71</v>
@@ -11860,47 +11600,47 @@
         <v>138</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="231" x14ac:dyDescent="0.6">
       <c r="A24" s="12" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="231" x14ac:dyDescent="0.6">
       <c r="A25" s="12" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>149</v>
@@ -11912,16 +11652,16 @@
         <v>138</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.6">
@@ -11938,7 +11678,7 @@
     </row>
     <row r="27" spans="1:8" ht="273" x14ac:dyDescent="0.6">
       <c r="A27" s="12" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>73</v>
@@ -11953,18 +11693,18 @@
         <v>154</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="273" x14ac:dyDescent="0.6">
       <c r="A28" s="12" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>74</v>
@@ -11979,18 +11719,18 @@
         <v>155</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="273" x14ac:dyDescent="0.6">
       <c r="A29" s="12" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>75</v>
@@ -12002,21 +11742,21 @@
         <v>142</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="315" x14ac:dyDescent="0.6">
       <c r="A30" s="12" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>76</v>
@@ -12031,44 +11771,44 @@
         <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="273" x14ac:dyDescent="0.6">
       <c r="A31" s="12" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="336" x14ac:dyDescent="0.6">
       <c r="A32" s="12" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>77</v>
@@ -12080,21 +11820,21 @@
         <v>143</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="189" x14ac:dyDescent="0.6">
       <c r="A33" s="12" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>79</v>
@@ -12106,21 +11846,21 @@
         <v>143</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="294" x14ac:dyDescent="0.6">
       <c r="A34" s="12" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>78</v>
@@ -12132,21 +11872,21 @@
         <v>144</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="210" x14ac:dyDescent="0.6">
       <c r="A35" s="12" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>80</v>
@@ -12158,21 +11898,21 @@
         <v>144</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="315" x14ac:dyDescent="0.6">
       <c r="A36" s="12" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>131</v>
@@ -12181,24 +11921,24 @@
         <v>133</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="210" x14ac:dyDescent="0.6">
       <c r="A37" s="12" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>132</v>
@@ -12207,19 +11947,19 @@
         <v>133</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
@@ -12245,19 +11985,19 @@
         <v>125</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>157</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="147" x14ac:dyDescent="0.6">
@@ -12271,19 +12011,19 @@
         <v>125</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>157</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="147" x14ac:dyDescent="0.6">
@@ -12297,19 +12037,19 @@
         <v>125</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>157</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="84" x14ac:dyDescent="0.6">
@@ -12323,19 +12063,19 @@
         <v>125</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>157</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.6">
@@ -12364,16 +12104,16 @@
         <v>139</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="168" x14ac:dyDescent="0.6">
@@ -12390,16 +12130,16 @@
         <v>139</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="105" x14ac:dyDescent="0.6">
@@ -12416,16 +12156,16 @@
         <v>139</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="409.6" x14ac:dyDescent="0.6">
@@ -12442,16 +12182,16 @@
         <v>139</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.6">
@@ -12468,16 +12208,16 @@
         <v>139</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="168" x14ac:dyDescent="0.6">
@@ -12494,16 +12234,16 @@
         <v>139</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="105" x14ac:dyDescent="0.6">
@@ -12520,16 +12260,16 @@
         <v>139</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/UAT-Testcase-LeaveForm.xlsx
+++ b/UAT-Testcase-LeaveForm.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\CubeSoftTech_WorkingSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EDD5AE-FED9-4DDD-8943-82E8CB842C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFFF7F2-32DF-4723-9BE8-DE407F75DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CCCF8952-E977-4E69-B266-ED8C89073CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Role" sheetId="1" r:id="rId1"/>
     <sheet name="HR Role" sheetId="4" r:id="rId2"/>
-    <sheet name="Admin Role" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="494">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1707,72 +1706,6 @@
    1.2 กดปุ่ม Add leave
    1.3 กรอกข้อมูลตามที่ระบุใน Input Data
    1.4 กดปุ่ม Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานเพิ่มคำร้องลากิจ/ลาพักร้อนสำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก
-   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
-   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
-Leave ID : เลขรหัสสำหรับการลา, Submit Date : วันและเวลา ณ ขณะที่ทำการทดสอบ
-The applicant : "test_it_role", Type of leave : "ลากิจ/ลาพักร้อน"
-Start date (Since) : 19-08-2021, End date (Until) : 20-08-2021
-Amount the day : 2.000, Status : "Waiting for approve"
-และแสดงจำนวนวันลาที่ใช้ไป : ลากิจ ลาพักร้อน : 0.0/10.0,
-ลาพักร้อนที่เหลือจากปีก่อน 0.0/2.0 ลาป่วย : 0.0, ลาอื่น ๆ  : 0.0, ลาโดยไม่รับค่าจ้าง : 0.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานเพิ่มคำร้องลากิจ/ลาพักร้อนสำเร็จ สถานะรออนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบจะแสดงหน้าจอสำหรับการลา (LEAVE003)
-   1.2 ระบบจะแสดงหน้าจอสำหรับกรอกข้อมูลการลา (LEAVE004)
-   1.3 ระบบจะแสดงหน้าจอแสดงผลข้อมูลผู้ใช้งาน (LEAVE004)
-เป็นข้อมูลที่ผู้ใช้เลือก
-   1.4 ระบบจะแสดงหน้าจอปฏิทิน (LEAVE005) ของเดือนสิงหาคม ค.ศ. 2021
-   1.5 แสดงข้อมูลสำหรับข้อมูลการลา (LEAVE003) และแสดงข้อมูลในคอลัมน์ดังนี้
-Leave ID : 3723, Submit Date : 25-08-2021 10:30
-The applicant : "test_it_role", Type of leave : "ลากิจ/ลาพักร้อน"
-Start date (Since) : 19-08-2021, End date (Until) : 20-08-2021
-Amount the day : 2.000, Status : "Waiting for approve"
-และแสดงจำนวนวันลาที่ใช้ไป : ลากิจ ลาพักร้อน : 0.0/10.0,
-ลาพักร้อนที่เหลือจากปีก่อน 0.0/2.0 ลาป่วย : 0.0, ลาอื่น ๆ  : 0.0, ลาโดยไม่รับค่าจ้าง : 0.0</t>
     </r>
   </si>
   <si>
@@ -5074,40 +5007,16 @@
     <t>TC-LEAVE-HR-039</t>
   </si>
   <si>
-    <t>TC-LEAVE-HR-040</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-HR-041</t>
-  </si>
-  <si>
-    <t>TC-LEAVE-HR-042</t>
-  </si>
-  <si>
     <t>ค้นหาคำร้องการลา Leave List</t>
   </si>
   <si>
     <t>HR ค้นหา ประเภทของการลา ในการยื่นคำร้องการลาสำเร็จ</t>
   </si>
   <si>
-    <t>TC-LEAVE-HR-043</t>
-  </si>
-  <si>
-    <t>HR ลบ คำร้องการลาไม่สำเร็จ</t>
-  </si>
-  <si>
-    <t>HR ย้ายข้อมูลการลาสำเร็จ</t>
-  </si>
-  <si>
-    <t>HR ย้ายข้อมูลการลาไม่สำเร็จ</t>
-  </si>
-  <si>
     <t>อื่น ๆ Leave List</t>
   </si>
   <si>
     <t>อนุมัติ Leave List</t>
-  </si>
-  <si>
-    <t>Leave Calendar</t>
   </si>
   <si>
     <t>Duration :08-09-2021 to 08-09-2021
@@ -5236,14 +5145,6 @@
 สามารถแก้ไขการลาของตนเองได้</t>
   </si>
   <si>
-    <t>เป็นส่วนหนึ่งในหน้าปฏิทินการลา
-ไม่สามารถลบคำร้องการลาได้</t>
-  </si>
-  <si>
-    <t>เป็นส่วนหนึ่งในหน้าปฏิทินการลา
-ไม่สามารถย้ายคำร้องการลาได้</t>
-  </si>
-  <si>
     <t>เป็นส่วนในการอนุมัติการลา
 สามารถดูข้อมูลการลาของตนเองได้</t>
   </si>
@@ -5274,9 +5175,6 @@
   <si>
     <t>เป็นส่วนในการอนุมัติการลา
 สามารถค้นหารายชื่อพนักงานคนอื่นได้</t>
-  </si>
-  <si>
-    <t>DEF-011</t>
   </si>
   <si>
     <t>Status : Approved</t>
@@ -5680,7 +5578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5774,9 +5672,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5785,7 +5680,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -7262,249 +7156,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>394335</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>663575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5783378" cy="1687963"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="กล่องข้อความ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F43666-49AF-46B0-BC47-0203B5800EEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="36330255" y="5464175"/>
-          <a:ext cx="5783378" cy="1687963"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>รหัสหน้าจอ - ชื่อหน้าจอทดสอบ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t> 1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>LEAVE001 - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>แสดงหน้าเข้าสู่ระบบ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>    2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>LEAVE002 - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>แสดงหน้าแรกของเว็บไซต์</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>    3. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>LEAVE003 - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>แสดงหน้าประเภทการลา และหน้าข้อมูลในการลาทั้งหมด รวมถึงจำนวนวันที่เหลือ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>    4. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>LEAVE004 - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>แสดงหน้ากรอกข้อมูลที่ใช้ในการลา ชื่อ วันที่ จำนวนวัน คำอธิบาย</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>    5. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>LEAVE005 - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>แสดงปฏิทินข้อมูลการลา</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>    6. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>LEAVE006 - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>แสดงหน้าจอ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>pop up </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>แสดงข้อความแจ้งเตือนเกินจำนวนโควตาการลา</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>      7. LEAVE007 - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>แสดงหน้าจอ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Leave application list </a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH"/>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>  8. LEAVE008 - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH"/>
-            <a:t>แสดงหน้าจอปฏิทินข้อมูลทั้งหมดของเดือนปัจจุบัน</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
@@ -7808,8 +7459,1945 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" style="2" customWidth="1"/>
+    <col min="6" max="8" width="70.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="70.77734375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A1" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="147" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" s="10" customFormat="1" ht="315" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" s="10" customFormat="1" ht="336" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="10" customFormat="1" ht="189" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="K32" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="10" customFormat="1" ht="294" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:11" s="10" customFormat="1" ht="315" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" s="10" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" s="10" customFormat="1" ht="147" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" s="10" customFormat="1" ht="147" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" ht="294" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I44" s="16"/>
+      <c r="J44" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I45" s="16"/>
+      <c r="J45" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="409.6" x14ac:dyDescent="0.6">
+      <c r="A46" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.6">
+      <c r="A47" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="I47" s="16"/>
+      <c r="J47" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="168" x14ac:dyDescent="0.6">
+      <c r="A48" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="J48" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="105" x14ac:dyDescent="0.6">
+      <c r="A49" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="I49" s="16"/>
+      <c r="J49" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A50" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" ht="273" x14ac:dyDescent="0.6">
+      <c r="A51" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="I51" s="24"/>
+      <c r="J51" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="273" x14ac:dyDescent="0.6">
+      <c r="A52" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="I52" s="25"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A53" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.6">
+      <c r="A54" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" ht="126" x14ac:dyDescent="0.6">
+      <c r="A55" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" ht="147" x14ac:dyDescent="0.6">
+      <c r="A56" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="126" x14ac:dyDescent="0.6">
+      <c r="A57" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="I57" s="18"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" ht="126" x14ac:dyDescent="0.6">
+      <c r="A58" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59" spans="1:12" ht="84" x14ac:dyDescent="0.6">
+      <c r="A59" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A60" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" ht="126" x14ac:dyDescent="0.6">
+      <c r="A61" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I61" s="16"/>
+      <c r="J61" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+    </row>
+    <row r="63" spans="1:12" s="33" customFormat="1" ht="42" x14ac:dyDescent="0.6">
+      <c r="A63" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97D23A4-44E4-4167-84C9-C181AB330E01}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -7828,11 +9416,11 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A1" s="40" t="s">
-        <v>348</v>
+        <v>8</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>347</v>
+        <v>9</v>
       </c>
       <c r="D1" s="40"/>
       <c r="E1" s="15" t="s">
@@ -7905,7 +9493,7 @@
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>15</v>
@@ -7917,7 +9505,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>20</v>
@@ -7928,7 +9516,7 @@
       <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="37" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="8"/>
@@ -7936,7 +9524,7 @@
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="147" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>21</v>
@@ -7948,18 +9536,18 @@
         <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>389</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="I5" s="37" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="8"/>
@@ -7967,7 +9555,7 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>391</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7980,1750 +9568,952 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>31</v>
+        <v>357</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>392</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>426</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>152</v>
+        <v>473</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>33</v>
+        <v>360</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>424</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>29</v>
+        <v>361</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>394</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>34</v>
+        <v>425</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>151</v>
+        <v>475</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I9" s="18"/>
+        <v>476</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>32</v>
+        <v>362</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>455</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I11" s="18"/>
+        <v>458</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>59</v>
+        <v>363</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>34</v>
+        <v>456</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="I12" s="18"/>
+        <v>459</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>39</v>
+        <v>364</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>427</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="I13" s="18"/>
+        <v>460</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>61</v>
+        <v>365</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>60</v>
+        <v>427</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="I14" s="18"/>
+        <v>461</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>62</v>
+        <v>366</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>60</v>
+        <v>427</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>63</v>
+        <v>367</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>428</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>65</v>
+        <v>368</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>429</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>67</v>
+        <v>369</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>66</v>
+        <v>430</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I18" s="16"/>
+        <v>465</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A19" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>69</v>
+        <v>370</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>153</v>
+        <v>431</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I20" s="16"/>
+        <v>457</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>70</v>
+        <v>371</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>402</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>153</v>
+        <v>432</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I21" s="18"/>
+        <v>466</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.3">
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>71</v>
+        <v>372</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>403</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>72</v>
+        <v>433</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="I22" s="18"/>
+        <v>467</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A23" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A24" s="12" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>149</v>
+        <v>405</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>148</v>
+        <v>449</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A25" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A26" s="12" t="s">
-        <v>87</v>
+        <v>375</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="I26" s="18"/>
+        <v>406</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A27" s="12" t="s">
-        <v>88</v>
+        <v>376</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="I27" s="18"/>
+        <v>406</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A28" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="I28" s="18"/>
+        <v>377</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" s="10" customFormat="1" ht="315" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A29" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="I29" s="18"/>
+        <v>378</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" s="10" customFormat="1" ht="273" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" s="10" customFormat="1" ht="336" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A30" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A31" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="10" customFormat="1" ht="189" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A32" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="I32" s="16"/>
-      <c r="K32" s="12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="10" customFormat="1" ht="294" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A33" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A34" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="1:11" s="10" customFormat="1" ht="315" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A35" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>349</v>
+        <v>383</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A36" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>349</v>
+        <v>384</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" s="10" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A37" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A38" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A39" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A40" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A41" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A42" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A43" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A44" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11" s="10" customFormat="1" ht="147" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A45" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11" s="10" customFormat="1" ht="147" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A46" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A47" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A48" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="E41" s="12" t="s">
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="1:11" ht="42" x14ac:dyDescent="0.6">
+      <c r="A49" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" s="4" customFormat="1" ht="294" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="409.6" x14ac:dyDescent="0.6">
-      <c r="A46" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.6">
-      <c r="A47" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="168" x14ac:dyDescent="0.6">
-      <c r="A48" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="105" x14ac:dyDescent="0.6">
-      <c r="A49" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A50" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="1:12" ht="273" x14ac:dyDescent="0.6">
-      <c r="A51" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="I51" s="24"/>
-      <c r="J51" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="273" x14ac:dyDescent="0.6">
-      <c r="A52" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A53" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.6">
-      <c r="A54" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-    </row>
-    <row r="55" spans="1:12" ht="105" x14ac:dyDescent="0.6">
-      <c r="A55" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-    </row>
-    <row r="56" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A56" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A57" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A58" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-    </row>
-    <row r="59" spans="1:12" ht="84" x14ac:dyDescent="0.6">
-      <c r="A59" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="I59" s="18"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A60" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="1:12" ht="126" x14ac:dyDescent="0.6">
-      <c r="A61" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-    </row>
-    <row r="63" spans="1:12" s="33" customFormat="1" ht="42" x14ac:dyDescent="0.6">
-      <c r="A63" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9735,2550 +10525,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97D23A4-44E4-4167-84C9-C181AB330E01}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:K54"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.77734375" style="2" customWidth="1"/>
-    <col min="6" max="8" width="70.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="70.77734375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="147" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A13" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A14" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A15" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A16" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A17" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A18" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A19" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A20" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A21" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A22" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A23" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A24" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A25" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A26" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A27" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A28" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A29" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A30" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A31" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A32" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-    </row>
-    <row r="33" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A33" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A34" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A35" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A36" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A37" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A38" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A39" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A40" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-    </row>
-    <row r="41" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A41" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A42" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A43" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A44" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A45" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-    </row>
-    <row r="46" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A46" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-    </row>
-    <row r="47" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A47" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-    </row>
-    <row r="48" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A48" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-    </row>
-    <row r="49" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A49" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A50" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A51" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="K51" s="8"/>
-    </row>
-    <row r="52" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A52" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-    </row>
-    <row r="53" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A53" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-    </row>
-    <row r="54" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A54" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B987BD-A163-487C-B668-95C37567195B}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:K50"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.77734375" style="2" customWidth="1"/>
-    <col min="6" max="8" width="70.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="70.77734375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="147" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="273" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="231" x14ac:dyDescent="0.6">
-      <c r="A13" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="231" x14ac:dyDescent="0.6">
-      <c r="A14" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="231" x14ac:dyDescent="0.6">
-      <c r="A15" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="231" x14ac:dyDescent="0.6">
-      <c r="A16" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="252" x14ac:dyDescent="0.6">
-      <c r="A17" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="273" x14ac:dyDescent="0.6">
-      <c r="A18" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="273" x14ac:dyDescent="0.6">
-      <c r="A19" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="168" x14ac:dyDescent="0.6">
-      <c r="A20" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="231" x14ac:dyDescent="0.6">
-      <c r="A21" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="168" x14ac:dyDescent="0.6">
-      <c r="A22" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="252" x14ac:dyDescent="0.6">
-      <c r="A23" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="231" x14ac:dyDescent="0.6">
-      <c r="A24" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="231" x14ac:dyDescent="0.6">
-      <c r="A25" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="273" x14ac:dyDescent="0.6">
-      <c r="A27" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="273" x14ac:dyDescent="0.6">
-      <c r="A28" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="273" x14ac:dyDescent="0.6">
-      <c r="A29" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="315" x14ac:dyDescent="0.6">
-      <c r="A30" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="273" x14ac:dyDescent="0.6">
-      <c r="A31" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="336" x14ac:dyDescent="0.6">
-      <c r="A32" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="189" x14ac:dyDescent="0.6">
-      <c r="A33" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="294" x14ac:dyDescent="0.6">
-      <c r="A34" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="210" x14ac:dyDescent="0.6">
-      <c r="A35" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="315" x14ac:dyDescent="0.6">
-      <c r="A36" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="210" x14ac:dyDescent="0.6">
-      <c r="A37" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" ht="126" x14ac:dyDescent="0.6">
-      <c r="A39" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="147" x14ac:dyDescent="0.6">
-      <c r="A40" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="147" x14ac:dyDescent="0.6">
-      <c r="A41" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="84" x14ac:dyDescent="0.6">
-      <c r="A42" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="294" x14ac:dyDescent="0.6">
-      <c r="A44" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="168" x14ac:dyDescent="0.6">
-      <c r="A45" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="105" x14ac:dyDescent="0.6">
-      <c r="A46" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="409.6" x14ac:dyDescent="0.6">
-      <c r="A47" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.6">
-      <c r="A48" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="168" x14ac:dyDescent="0.6">
-      <c r="A49" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="105" x14ac:dyDescent="0.6">
-      <c r="A50" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>